--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenj\OneDrive\바탕 화면\이정빈-대학교\개발 프로젝트\MyCloset\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3EE48E-998A-4AC3-8C71-4A0C664C6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6BAA4D-0E63-48E4-AC3D-0F44540AA7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,7 +164,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엄마 수술</t>
+    <t>개발을 위한 공부</t>
+  </si>
+  <si>
+    <t>개발을 위한 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,13 +261,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,8 +357,47 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +716,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,20 +747,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -643,137 +769,152 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="5">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenj\OneDrive\바탕 화면\이정빈-대학교\개발 프로젝트\MyCloset\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6BAA4D-0E63-48E4-AC3D-0F44540AA7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CD87A-5DC6-4385-9596-A30EBFD4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,102 @@
   </si>
   <si>
     <t>개발을 위한 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8, 9, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, 12, 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16, 17, 18, 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 21, 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23, 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25, 26, 27, 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29, 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31, 32, 33, 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35, 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37, 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39, 40, 41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42, 43, 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45, 46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47, 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +297,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +332,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -338,13 +468,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,30 +589,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,17 +643,113 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72A8E20-C5F1-479F-850D-BE7D4ADC50A9}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,16 +1104,16 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -769,142 +1121,142 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -920,4 +1272,734 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="14" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29">
+        <v>19</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="29">
+        <v>24</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="29">
+        <v>19</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="29">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29">
+        <v>16</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="29">
+        <v>23</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="29">
+        <v>24</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39">
+        <f>SUM(B2:B4)</f>
+        <v>69</v>
+      </c>
+      <c r="J13" s="39">
+        <f>SUM(B5:B7)</f>
+        <v>58</v>
+      </c>
+      <c r="K13" s="39">
+        <f>SUM(B8:B10)</f>
+        <v>49</v>
+      </c>
+      <c r="L13" s="39">
+        <f>SUM(B11:B13)</f>
+        <v>63</v>
+      </c>
+      <c r="M13" s="39">
+        <f>SUM(B14:B15)</f>
+        <v>52</v>
+      </c>
+      <c r="N13" s="40">
+        <f>SUM(B16:B19)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="29">
+        <v>14</v>
+      </c>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="29">
+        <v>38</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29">
+        <v>26</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29">
+        <v>26</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="38">
+        <f>SUM(B20:B22)</f>
+        <v>69</v>
+      </c>
+      <c r="I17" s="39">
+        <f>SUM(B23:B24)</f>
+        <v>65</v>
+      </c>
+      <c r="J17" s="39">
+        <f>SUM(B25:B28)</f>
+        <v>39</v>
+      </c>
+      <c r="K17" s="39">
+        <f>SUM(B29:B30)</f>
+        <v>61</v>
+      </c>
+      <c r="L17" s="39">
+        <f>SUM(B31:B34)</f>
+        <v>67</v>
+      </c>
+      <c r="M17" s="38">
+        <f>SUM(B35:B36)</f>
+        <v>64</v>
+      </c>
+      <c r="N17" s="40">
+        <f>SUM(B37:B38)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="29">
+        <v>44</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="29">
+        <v>5</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="29">
+        <v>16</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="29">
+        <v>27</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="34">
+        <f>SUM(B39:B41)</f>
+        <v>75</v>
+      </c>
+      <c r="I21" s="36">
+        <f>SUM(B42:B44)</f>
+        <v>51</v>
+      </c>
+      <c r="J21" s="36">
+        <f>SUM(B45:B46)</f>
+        <v>46</v>
+      </c>
+      <c r="K21" s="36">
+        <f>SUM(B47:B48)</f>
+        <v>44</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="27">
+        <f>SUM(B2:B48)</f>
+        <v>1035</v>
+      </c>
+      <c r="C49" s="23">
+        <f>B49/60</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="25">
+        <f>B49/47</f>
+        <v>22.021276595744681</v>
+      </c>
+      <c r="C50" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenj\OneDrive\바탕 화면\이정빈-대학교\개발 프로젝트\MyCloset\개발일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CD87A-5DC6-4385-9596-A30EBFD4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBDFD0-E536-47A2-8D9B-458CEDD26627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +255,129 @@
   </si>
   <si>
     <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 2일</t>
+  </si>
+  <si>
+    <t>4월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 4일</t>
+  </si>
+  <si>
+    <t>4월 5일</t>
+  </si>
+  <si>
+    <t>4월 6일</t>
+  </si>
+  <si>
+    <t>4월 7일</t>
+  </si>
+  <si>
+    <t>4월 8일</t>
+  </si>
+  <si>
+    <t>4월 9일</t>
+  </si>
+  <si>
+    <t>4월 10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 11일</t>
+  </si>
+  <si>
+    <t>4월 12일</t>
+  </si>
+  <si>
+    <t>4월 13일</t>
+  </si>
+  <si>
+    <t>4월 14일</t>
+  </si>
+  <si>
+    <t>4월 15일</t>
+  </si>
+  <si>
+    <t>4월 16일</t>
+  </si>
+  <si>
+    <t>4월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 18일</t>
+  </si>
+  <si>
+    <t>4월 19일</t>
+  </si>
+  <si>
+    <t>4월 20일</t>
+  </si>
+  <si>
+    <t>4월 21일</t>
+  </si>
+  <si>
+    <t>4월 22일</t>
+  </si>
+  <si>
+    <t>4월 23일</t>
+  </si>
+  <si>
+    <t>4월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 25일</t>
+  </si>
+  <si>
+    <t>4월 26일</t>
+  </si>
+  <si>
+    <t>4월 27일</t>
+  </si>
+  <si>
+    <t>4월 28일</t>
+  </si>
+  <si>
+    <t>4월 29일</t>
+  </si>
+  <si>
+    <t>4월 30일</t>
+  </si>
+  <si>
+    <t>49, 50, 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52, 53, 54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55, 56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57, 58, 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60, 61, 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63, 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65, 66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -515,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -539,17 +643,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -560,6 +653,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -579,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +736,111 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,113 +856,74 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,12 +1295,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1152,17 +1326,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="13" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1188,15 +1362,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1222,14 +1396,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1276,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,26 +1462,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="58">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="57">
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1333,55 +1507,55 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="24">
         <v>4</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="57">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="24">
         <v>5</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="57">
         <v>19</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="24">
         <v>6</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="57">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="37"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="24">
         <v>7</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="57">
         <v>13</v>
       </c>
       <c r="H7" s="1"/>
@@ -1389,109 +1563,109 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="24">
         <v>8</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="57">
         <v>24</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="24">
         <v>9</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="57">
         <v>19</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="13" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="57">
         <v>6</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="24">
         <v>11</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="57">
         <v>16</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="24">
         <v>12</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="57">
         <v>23</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
         <v>43</v>
       </c>
@@ -1512,90 +1686,90 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="24">
         <v>13</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="57">
         <v>24</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39">
+      <c r="H13" s="32"/>
+      <c r="I13" s="33">
         <f>SUM(B2:B4)</f>
         <v>69</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="33">
         <f>SUM(B5:B7)</f>
         <v>58</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="33">
         <f>SUM(B8:B10)</f>
         <v>49</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="33">
         <f>SUM(B11:B13)</f>
         <v>63</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="33">
         <f>SUM(B14:B15)</f>
         <v>52</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="34">
         <f>SUM(B16:B19)</f>
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="24">
         <v>14</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="57">
         <v>14</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="24">
         <v>15</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="57">
         <v>38</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="50" t="s">
+      <c r="M15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="51" t="s">
+      <c r="N15" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="24">
         <v>16</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="57">
         <v>26</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1613,393 +1787,882 @@
       <c r="L16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="24">
         <v>17</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="57">
         <v>26</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="32">
         <f>SUM(B20:B22)</f>
         <v>69</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="33">
         <f>SUM(B23:B24)</f>
         <v>65</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="33">
         <f>SUM(B25:B28)</f>
         <v>39</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="33">
         <f>SUM(B29:B30)</f>
         <v>61</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="33">
         <f>SUM(B31:B34)</f>
         <v>67</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="32">
         <f>SUM(B35:B36)</f>
         <v>64</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="34">
         <f>SUM(B37:B38)</f>
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="24">
         <v>18</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="57">
         <v>44</v>
       </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24">
         <v>19</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="57">
         <v>5</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="45" t="s">
         <v>36</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="24">
         <v>20</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="57">
         <v>16</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="24">
         <v>21</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="57">
         <v>27</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="29">
         <f>SUM(B39:B41)</f>
         <v>75</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="31">
         <f>SUM(B42:B44)</f>
         <v>51</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="31">
         <f>SUM(B45:B46)</f>
         <v>46</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="31">
         <f>SUM(B47:B48)</f>
         <v>44</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="24">
         <v>22</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="57">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
         <v>23</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="57">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
         <v>24</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="57">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="M24" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24">
         <v>25</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="57">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24">
         <v>26</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="57">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="C26" s="24">
+        <v>49</v>
+      </c>
+      <c r="D26" s="59">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="32">
+        <f>SUM(B49:B51)</f>
+        <v>58</v>
+      </c>
+      <c r="N26" s="34">
+        <f>SUM(B52:B54)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24">
         <v>27</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="57">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="C27" s="24">
+        <v>50</v>
+      </c>
+      <c r="D27" s="59">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24">
         <v>28</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="57">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="C28" s="24">
+        <v>51</v>
+      </c>
+      <c r="D28" s="59">
+        <v>17</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24">
         <v>29</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="57">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="C29" s="24">
+        <v>52</v>
+      </c>
+      <c r="D29" s="59">
+        <v>33</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="50"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24">
         <v>30</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="57">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="C30" s="24">
+        <v>53</v>
+      </c>
+      <c r="D30" s="59">
+        <v>23</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="29">
+        <f>SUM(B55:B56)</f>
+        <v>48</v>
+      </c>
+      <c r="I30" s="29">
+        <f>SUM(B57:B59)</f>
+        <v>78</v>
+      </c>
+      <c r="J30" s="29">
+        <f>SUM(B60:B62)</f>
+        <v>63</v>
+      </c>
+      <c r="K30" s="29">
+        <f>SUM(B63:B64)</f>
+        <v>50</v>
+      </c>
+      <c r="L30" s="78">
+        <f>SUM(B65:B66)</f>
+        <v>55</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24">
         <v>31</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="57">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="C31" s="24">
+        <v>54</v>
+      </c>
+      <c r="D31" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24">
         <v>32</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="57">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="C32" s="24">
+        <v>55</v>
+      </c>
+      <c r="D32" s="59">
+        <v>23</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24">
         <v>33</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="57">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="C33" s="24">
+        <v>56</v>
+      </c>
+      <c r="D33" s="59">
+        <v>25</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="74"/>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24">
         <v>34</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="57">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="C34" s="24">
+        <v>57</v>
+      </c>
+      <c r="D34" s="59">
+        <v>20</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="60"/>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24">
         <v>35</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="57">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="C35" s="24">
+        <v>58</v>
+      </c>
+      <c r="D35" s="59">
+        <v>34</v>
+      </c>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24">
         <v>36</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="57">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="C36" s="24">
+        <v>59</v>
+      </c>
+      <c r="D36" s="59">
+        <v>24</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24">
         <v>37</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="57">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="C37" s="24">
+        <v>60</v>
+      </c>
+      <c r="D37" s="59">
+        <v>20</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24">
         <v>38</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="57">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="C38" s="24">
+        <v>61</v>
+      </c>
+      <c r="D38" s="59">
+        <v>18</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="60"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24">
         <v>39</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="57">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="C39" s="24">
+        <v>62</v>
+      </c>
+      <c r="D39" s="59">
+        <v>25</v>
+      </c>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24">
         <v>40</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="57">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="C40" s="24">
+        <v>63</v>
+      </c>
+      <c r="D40" s="59">
+        <v>29</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24">
         <v>41</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="57">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="C41" s="24">
+        <v>64</v>
+      </c>
+      <c r="D41" s="59">
+        <v>21</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="63"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="73"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24">
         <v>42</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="57">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="C42" s="24">
+        <v>65</v>
+      </c>
+      <c r="D42" s="59">
+        <v>26</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24">
         <v>43</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="57">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="C43" s="25">
+        <v>66</v>
+      </c>
+      <c r="D43" s="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
         <v>44</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
         <v>45</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
         <v>46</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
         <v>47</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="57">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
         <v>48</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
+        <v>49</v>
+      </c>
+      <c r="B49" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>50</v>
+      </c>
+      <c r="B50" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>51</v>
+      </c>
+      <c r="B51" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>52</v>
+      </c>
+      <c r="B52" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>53</v>
+      </c>
+      <c r="B53" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>54</v>
+      </c>
+      <c r="B54" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>55</v>
+      </c>
+      <c r="B55" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>56</v>
+      </c>
+      <c r="B56" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>57</v>
+      </c>
+      <c r="B57" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
+        <v>58</v>
+      </c>
+      <c r="B58" s="59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>59</v>
+      </c>
+      <c r="B59" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
+        <v>60</v>
+      </c>
+      <c r="B60" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <v>61</v>
+      </c>
+      <c r="B61" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
+        <v>62</v>
+      </c>
+      <c r="B62" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>63</v>
+      </c>
+      <c r="B63" s="59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>64</v>
+      </c>
+      <c r="B64" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
+        <v>65</v>
+      </c>
+      <c r="B65" s="59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="25">
+        <v>66</v>
+      </c>
+      <c r="B66" s="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="27">
-        <f>SUM(B2:B48)</f>
-        <v>1035</v>
-      </c>
-      <c r="C49" s="23">
-        <f>B49/60</f>
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="24" t="s">
+      <c r="B67" s="22">
+        <f>SUM(B2:B66)</f>
+        <v>1460</v>
+      </c>
+      <c r="C67" s="18">
+        <f>B67/60</f>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="25">
-        <f>B49/47</f>
-        <v>22.021276595744681</v>
-      </c>
-      <c r="C50" s="26"/>
+      <c r="B68" s="20">
+        <f>B67/47</f>
+        <v>31.063829787234042</v>
+      </c>
+      <c r="C68" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="M9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBDFD0-E536-47A2-8D9B-458CEDD26627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE25A84-988F-45D9-AFEC-AA28AFE6BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -832,6 +832,72 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,72 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,12 +1295,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1326,17 +1326,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="48" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1362,15 +1362,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1396,14 +1396,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1473,7 +1473,7 @@
       <c r="A2" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="49">
         <v>24</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="48">
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1510,7 +1510,7 @@
       <c r="A4" s="24">
         <v>4</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="48">
         <v>22</v>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="A5" s="24">
         <v>5</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="48">
         <v>19</v>
       </c>
       <c r="K5" s="40" t="s">
@@ -1538,24 +1538,24 @@
       <c r="A6" s="24">
         <v>6</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="48">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="56"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>7</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="48">
         <v>13</v>
       </c>
       <c r="H7" s="1"/>
@@ -1566,7 +1566,7 @@
       <c r="A8" s="24">
         <v>8</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="48">
         <v>24</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -1598,27 +1598,27 @@
       <c r="A9" s="24">
         <v>9</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="48">
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="48" t="s">
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="48">
         <v>6</v>
       </c>
       <c r="G10" s="37"/>
@@ -1627,7 +1627,7 @@
       <c r="A11" s="24">
         <v>11</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="48">
         <v>16</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -1659,7 +1659,7 @@
       <c r="A12" s="24">
         <v>12</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="48">
         <v>23</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -1689,7 +1689,7 @@
       <c r="A13" s="24">
         <v>13</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="48">
         <v>24</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -1725,7 +1725,7 @@
       <c r="A14" s="24">
         <v>14</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="48">
         <v>14</v>
       </c>
       <c r="G14" s="37"/>
@@ -1734,7 +1734,7 @@
       <c r="A15" s="24">
         <v>15</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="48">
         <v>38</v>
       </c>
       <c r="G15" s="35" t="s">
@@ -1766,7 +1766,7 @@
       <c r="A16" s="24">
         <v>16</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="48">
         <v>26</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -1798,7 +1798,7 @@
       <c r="A17" s="24">
         <v>17</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="48">
         <v>26</v>
       </c>
       <c r="G17" s="39" t="s">
@@ -1837,7 +1837,7 @@
       <c r="A18" s="24">
         <v>18</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="48">
         <v>44</v>
       </c>
       <c r="G18" s="37"/>
@@ -1846,7 +1846,7 @@
       <c r="A19" s="24">
         <v>19</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="48">
         <v>5</v>
       </c>
       <c r="G19" s="35" t="s">
@@ -1874,7 +1874,7 @@
       <c r="A20" s="24">
         <v>20</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="48">
         <v>16</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -1902,7 +1902,7 @@
       <c r="A21" s="24">
         <v>21</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="48">
         <v>27</v>
       </c>
       <c r="G21" s="39" t="s">
@@ -1932,7 +1932,7 @@
       <c r="A22" s="24">
         <v>22</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="48">
         <v>26</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       <c r="A23" s="24">
         <v>23</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="48">
         <v>47</v>
       </c>
     </row>
@@ -1948,10 +1948,10 @@
       <c r="A24" s="24">
         <v>24</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="48">
         <v>18</v>
       </c>
-      <c r="M24" s="77" t="s">
+      <c r="M24" s="68" t="s">
         <v>64</v>
       </c>
       <c r="N24" s="42" t="s">
@@ -1962,11 +1962,11 @@
       <c r="A25" s="24">
         <v>25</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="48">
         <v>3</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="13" t="s">
         <v>94</v>
       </c>
@@ -1978,20 +1978,20 @@
       <c r="A26" s="24">
         <v>26</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="48">
         <v>5</v>
       </c>
       <c r="C26" s="24">
         <v>49</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="50">
         <v>18</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="32">
         <f>SUM(B49:B51)</f>
         <v>58</v>
@@ -2005,13 +2005,13 @@
       <c r="A27" s="24">
         <v>27</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="48">
         <v>11</v>
       </c>
       <c r="C27" s="24">
         <v>50</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="50">
         <v>23</v>
       </c>
       <c r="H27" s="1"/>
@@ -2022,13 +2022,13 @@
       <c r="A28" s="24">
         <v>28</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="48">
         <v>20</v>
       </c>
       <c r="C28" s="24">
         <v>51</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="50">
         <v>17</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -2060,13 +2060,13 @@
       <c r="A29" s="24">
         <v>29</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="48">
         <v>40</v>
       </c>
       <c r="C29" s="24">
         <v>52</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="50">
         <v>33</v>
       </c>
       <c r="G29" s="38" t="s">
@@ -2087,22 +2087,22 @@
       <c r="L29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="50"/>
+      <c r="N29" s="72"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
         <v>30</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="48">
         <v>21</v>
       </c>
       <c r="C30" s="24">
         <v>53</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="50">
         <v>23</v>
       </c>
       <c r="G30" s="39" t="s">
@@ -2124,7 +2124,7 @@
         <f>SUM(B63:B64)</f>
         <v>50</v>
       </c>
-      <c r="L30" s="78">
+      <c r="L30" s="69">
         <f>SUM(B65:B66)</f>
         <v>55</v>
       </c>
@@ -2135,13 +2135,13 @@
       <c r="A31" s="24">
         <v>31</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="48">
         <v>17</v>
       </c>
       <c r="C31" s="24">
         <v>54</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="50">
         <v>17</v>
       </c>
     </row>
@@ -2149,13 +2149,13 @@
       <c r="A32" s="24">
         <v>32</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="48">
         <v>26</v>
       </c>
       <c r="C32" s="24">
         <v>55</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="50">
         <v>23</v>
       </c>
       <c r="G32" s="35" t="s">
@@ -2187,61 +2187,61 @@
       <c r="A33" s="24">
         <v>33</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="48">
         <v>16</v>
       </c>
       <c r="C33" s="24">
         <v>56</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="50">
         <v>25</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="74"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="65"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
         <v>34</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="48">
         <v>8</v>
       </c>
       <c r="C34" s="24">
         <v>57</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="50">
         <v>20</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="60"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <v>35</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="48">
         <v>38</v>
       </c>
       <c r="C35" s="24">
         <v>58</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="50">
         <v>34</v>
       </c>
       <c r="G35" s="37"/>
@@ -2250,13 +2250,13 @@
       <c r="A36" s="24">
         <v>36</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="48">
         <v>26</v>
       </c>
       <c r="C36" s="24">
         <v>59</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="50">
         <v>24</v>
       </c>
       <c r="G36" s="35" t="s">
@@ -2288,61 +2288,61 @@
       <c r="A37" s="24">
         <v>37</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="48">
         <v>24</v>
       </c>
       <c r="C37" s="24">
         <v>60</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="50">
         <v>20</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
         <v>38</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="48">
         <v>38</v>
       </c>
       <c r="C38" s="24">
         <v>61</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="50">
         <v>18</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="60"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="51"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
         <v>39</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="48">
         <v>21</v>
       </c>
       <c r="C39" s="24">
         <v>62</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="50">
         <v>25</v>
       </c>
       <c r="G39" s="37"/>
@@ -2351,13 +2351,13 @@
       <c r="A40" s="24">
         <v>40</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="48">
         <v>26</v>
       </c>
       <c r="C40" s="24">
         <v>63</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="50">
         <v>29</v>
       </c>
       <c r="G40" s="35" t="s">
@@ -2381,7 +2381,7 @@
       <c r="M40" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N40" s="62" t="s">
+      <c r="N40" s="53" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2389,47 +2389,47 @@
       <c r="A41" s="24">
         <v>41</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="48">
         <v>28</v>
       </c>
       <c r="C41" s="24">
         <v>64</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="50">
         <v>21</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="73"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="64"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
         <v>42</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="48">
         <v>16</v>
       </c>
       <c r="C42" s="24">
         <v>65</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="50">
         <v>26</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="69"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="71"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62"/>
       <c r="M42" s="26"/>
       <c r="N42" s="11"/>
     </row>
@@ -2437,13 +2437,13 @@
       <c r="A43" s="24">
         <v>43</v>
       </c>
-      <c r="B43" s="57">
+      <c r="B43" s="48">
         <v>22</v>
       </c>
       <c r="C43" s="25">
         <v>66</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="51">
         <v>29</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="A44" s="24">
         <v>44</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="48">
         <v>13</v>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       <c r="A45" s="24">
         <v>45</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="48">
         <v>27</v>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="A46" s="24">
         <v>46</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="48">
         <v>19</v>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="A47" s="24">
         <v>47</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="48">
         <v>29</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       <c r="A48" s="24">
         <v>48</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="48">
         <v>15</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="A49" s="24">
         <v>49</v>
       </c>
-      <c r="B49" s="59">
+      <c r="B49" s="50">
         <v>18</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       <c r="A50" s="24">
         <v>50</v>
       </c>
-      <c r="B50" s="59">
+      <c r="B50" s="50">
         <v>23</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="A51" s="24">
         <v>51</v>
       </c>
-      <c r="B51" s="59">
+      <c r="B51" s="50">
         <v>17</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="A52" s="24">
         <v>52</v>
       </c>
-      <c r="B52" s="59">
+      <c r="B52" s="50">
         <v>33</v>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       <c r="A53" s="24">
         <v>53</v>
       </c>
-      <c r="B53" s="59">
+      <c r="B53" s="50">
         <v>23</v>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="A54" s="24">
         <v>54</v>
       </c>
-      <c r="B54" s="59">
+      <c r="B54" s="50">
         <v>17</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       <c r="A55" s="24">
         <v>55</v>
       </c>
-      <c r="B55" s="59">
+      <c r="B55" s="50">
         <v>23</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       <c r="A56" s="24">
         <v>56</v>
       </c>
-      <c r="B56" s="59">
+      <c r="B56" s="50">
         <v>25</v>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       <c r="A57" s="24">
         <v>57</v>
       </c>
-      <c r="B57" s="59">
+      <c r="B57" s="50">
         <v>20</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       <c r="A58" s="24">
         <v>58</v>
       </c>
-      <c r="B58" s="59">
+      <c r="B58" s="50">
         <v>34</v>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="A59" s="24">
         <v>59</v>
       </c>
-      <c r="B59" s="59">
+      <c r="B59" s="50">
         <v>24</v>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       <c r="A60" s="24">
         <v>60</v>
       </c>
-      <c r="B60" s="59">
+      <c r="B60" s="50">
         <v>20</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       <c r="A61" s="24">
         <v>61</v>
       </c>
-      <c r="B61" s="59">
+      <c r="B61" s="50">
         <v>18</v>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="A62" s="24">
         <v>62</v>
       </c>
-      <c r="B62" s="59">
+      <c r="B62" s="50">
         <v>25</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="A63" s="24">
         <v>63</v>
       </c>
-      <c r="B63" s="59">
+      <c r="B63" s="50">
         <v>29</v>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       <c r="A64" s="24">
         <v>64</v>
       </c>
-      <c r="B64" s="59">
+      <c r="B64" s="50">
         <v>21</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       <c r="A65" s="24">
         <v>65</v>
       </c>
-      <c r="B65" s="59">
+      <c r="B65" s="50">
         <v>26</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="60">
+      <c r="B66" s="51">
         <v>29</v>
       </c>
     </row>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE25A84-988F-45D9-AFEC-AA28AFE6BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286E6F2-BAAF-45BA-B244-E25E6FEB3D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,46 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23, 24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25, 26, 27, 28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29, 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31, 32, 33, 34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35, 36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37, 38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39, 40, 41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>42, 43, 44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45, 46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47, 48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,31 +317,59 @@
     <t>4월 30일</t>
   </si>
   <si>
-    <t>49, 50, 51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52, 53, 54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55, 56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57, 58, 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60, 61, 62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>63, 64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>65, 66</t>
+    <t>24, 25,  26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29, 30, 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32, 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34, 35, 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37, 38, 39, 40, 41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45, 46, 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48, 49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50, 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55, 56, 57, 58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59, 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61, 62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,6 +377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -687,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +925,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,21 +1465,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:H52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1570,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>11</v>
@@ -1631,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>18</v>
@@ -1663,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
@@ -1738,7 +1752,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>25</v>
@@ -1770,28 +1784,28 @@
         <v>26</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
+      <c r="I16" s="5">
+        <v>23</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1809,28 +1823,28 @@
         <v>69</v>
       </c>
       <c r="I17" s="33">
-        <f>SUM(B23:B24)</f>
-        <v>65</v>
+        <f>SUM(B23)</f>
+        <v>47</v>
       </c>
       <c r="J17" s="33">
-        <f>SUM(B25:B28)</f>
-        <v>39</v>
+        <f>SUM(B24:B26)</f>
+        <v>62</v>
       </c>
       <c r="K17" s="33">
-        <f>SUM(B29:B30)</f>
-        <v>61</v>
+        <f>SUM(B27:B28)</f>
+        <v>40</v>
       </c>
       <c r="L17" s="33">
-        <f>SUM(B31:B34)</f>
-        <v>67</v>
+        <f>SUM(B29:B31)</f>
+        <v>73</v>
       </c>
       <c r="M17" s="32">
-        <f>SUM(B35:B36)</f>
-        <v>64</v>
+        <f>SUM(B32:B33)</f>
+        <v>48</v>
       </c>
       <c r="N17" s="34">
-        <f>SUM(B37:B38)</f>
-        <v>62</v>
+        <f>SUM(B34:B36)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1850,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>32</v>
@@ -1878,22 +1892,22 @@
         <v>16</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
@@ -1909,20 +1923,20 @@
         <v>42</v>
       </c>
       <c r="H21" s="29">
-        <f>SUM(B39:B41)</f>
-        <v>75</v>
+        <f>SUM(B37:B41)</f>
+        <v>86</v>
       </c>
       <c r="I21" s="31">
         <f>SUM(B42:B44)</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J21" s="31">
-        <f>SUM(B45:B46)</f>
-        <v>46</v>
+        <f>SUM(B45:B47)</f>
+        <v>50</v>
       </c>
       <c r="K21" s="31">
-        <f>SUM(B47:B48)</f>
-        <v>44</v>
+        <f>SUM(B48:B49)</f>
+        <v>64</v>
       </c>
       <c r="L21" s="30"/>
       <c r="M21" s="26"/>
@@ -1937,25 +1951,29 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24">
+      <c r="A23" s="81">
         <v>23</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="82">
         <v>47</v>
       </c>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>24</v>
       </c>
       <c r="B24" s="48">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="79">
+        <v>44683</v>
       </c>
       <c r="M24" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N24" s="42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1963,15 +1981,18 @@
         <v>25</v>
       </c>
       <c r="B25" s="48">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="79">
+        <v>44684</v>
       </c>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
       <c r="M25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1979,26 +2000,24 @@
         <v>26</v>
       </c>
       <c r="B26" s="48">
-        <v>5</v>
-      </c>
-      <c r="C26" s="24">
-        <v>49</v>
-      </c>
-      <c r="D26" s="50">
         <v>18</v>
       </c>
+      <c r="C26" s="79">
+        <v>44685</v>
+      </c>
+      <c r="D26" s="50"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
       <c r="M26" s="32">
-        <f>SUM(B49:B51)</f>
-        <v>58</v>
+        <f>SUM(B50:B51)</f>
+        <v>62</v>
       </c>
       <c r="N26" s="34">
         <f>SUM(B52:B54)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2006,14 +2025,12 @@
         <v>27</v>
       </c>
       <c r="B27" s="48">
-        <v>11</v>
-      </c>
-      <c r="C27" s="24">
-        <v>50</v>
-      </c>
-      <c r="D27" s="50">
         <v>23</v>
       </c>
+      <c r="C27" s="79">
+        <v>44686</v>
+      </c>
+      <c r="D27" s="50"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2023,37 +2040,35 @@
         <v>28</v>
       </c>
       <c r="B28" s="48">
-        <v>20</v>
-      </c>
-      <c r="C28" s="24">
-        <v>51</v>
-      </c>
-      <c r="D28" s="50">
         <v>17</v>
       </c>
+      <c r="C28" s="79">
+        <v>44687</v>
+      </c>
+      <c r="D28" s="50"/>
       <c r="G28" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="40" t="s">
         <v>63</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2061,16 +2076,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="48">
-        <v>40</v>
-      </c>
-      <c r="C29" s="24">
+        <v>33</v>
+      </c>
+      <c r="C29" s="79">
+        <v>44688</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="G29" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" s="50">
-        <v>33</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>96</v>
@@ -2082,13 +2095,11 @@
         <v>98</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L29" s="14"/>
       <c r="M29" s="70" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N29" s="72"/>
     </row>
@@ -2097,36 +2108,34 @@
         <v>30</v>
       </c>
       <c r="B30" s="48">
-        <v>21</v>
-      </c>
-      <c r="C30" s="24">
-        <v>53</v>
-      </c>
-      <c r="D30" s="50">
         <v>23</v>
       </c>
+      <c r="C30" s="79">
+        <v>44689</v>
+      </c>
+      <c r="D30" s="50"/>
       <c r="G30" s="39" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="29">
-        <f>SUM(B55:B56)</f>
-        <v>48</v>
+        <f>SUM(B55:B58)</f>
+        <v>77</v>
       </c>
       <c r="I30" s="29">
-        <f>SUM(B57:B59)</f>
-        <v>78</v>
+        <f>SUM(B59:B60)</f>
+        <v>25</v>
       </c>
       <c r="J30" s="29">
-        <f>SUM(B60:B62)</f>
-        <v>63</v>
+        <f>SUM(B61:B62)</f>
+        <v>50</v>
       </c>
       <c r="K30" s="29">
         <f>SUM(B63:B64)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L30" s="69">
         <f>SUM(B65:B66)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="34"/>
@@ -2138,49 +2147,45 @@
       <c r="B31" s="48">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
-        <v>54</v>
-      </c>
-      <c r="D31" s="50">
-        <v>17</v>
-      </c>
+      <c r="C31" s="79">
+        <v>44690</v>
+      </c>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>32</v>
       </c>
       <c r="B32" s="48">
-        <v>26</v>
-      </c>
-      <c r="C32" s="24">
-        <v>55</v>
-      </c>
-      <c r="D32" s="50">
         <v>23</v>
       </c>
+      <c r="C32" s="79">
+        <v>44691</v>
+      </c>
+      <c r="D32" s="50"/>
       <c r="G32" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K32" s="43" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N32" s="43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2188,16 +2193,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="48">
-        <v>16</v>
-      </c>
-      <c r="C33" s="24">
-        <v>56</v>
-      </c>
-      <c r="D33" s="50">
         <v>25</v>
       </c>
+      <c r="C33" s="79">
+        <v>44692</v>
+      </c>
+      <c r="D33" s="50"/>
       <c r="G33" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="55"/>
@@ -2212,14 +2215,12 @@
         <v>34</v>
       </c>
       <c r="B34" s="48">
-        <v>8</v>
-      </c>
-      <c r="C34" s="24">
-        <v>57</v>
-      </c>
-      <c r="D34" s="50">
         <v>20</v>
       </c>
+      <c r="C34" s="79">
+        <v>44693</v>
+      </c>
+      <c r="D34" s="50"/>
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
@@ -2236,14 +2237,12 @@
         <v>35</v>
       </c>
       <c r="B35" s="48">
-        <v>38</v>
-      </c>
-      <c r="C35" s="24">
-        <v>58</v>
-      </c>
-      <c r="D35" s="50">
         <v>34</v>
       </c>
+      <c r="C35" s="79">
+        <v>44694</v>
+      </c>
+      <c r="D35" s="50"/>
       <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2251,37 +2250,35 @@
         <v>36</v>
       </c>
       <c r="B36" s="48">
-        <v>26</v>
-      </c>
-      <c r="C36" s="24">
-        <v>59</v>
-      </c>
-      <c r="D36" s="50">
         <v>24</v>
       </c>
+      <c r="C36" s="79">
+        <v>44695</v>
+      </c>
+      <c r="D36" s="50"/>
       <c r="G36" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K36" s="43" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L36" s="43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M36" s="43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N36" s="43" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2289,16 +2286,14 @@
         <v>37</v>
       </c>
       <c r="B37" s="48">
-        <v>24</v>
-      </c>
-      <c r="C37" s="24">
-        <v>60</v>
-      </c>
-      <c r="D37" s="50">
         <v>20</v>
       </c>
+      <c r="C37" s="79">
+        <v>44696</v>
+      </c>
+      <c r="D37" s="50"/>
       <c r="G37" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H37" s="54"/>
       <c r="I37" s="55"/>
@@ -2313,14 +2308,12 @@
         <v>38</v>
       </c>
       <c r="B38" s="48">
-        <v>38</v>
-      </c>
-      <c r="C38" s="24">
-        <v>61</v>
-      </c>
-      <c r="D38" s="50">
         <v>18</v>
       </c>
+      <c r="C38" s="80">
+        <v>44713</v>
+      </c>
+      <c r="D38" s="50"/>
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
@@ -2337,14 +2330,12 @@
         <v>39</v>
       </c>
       <c r="B39" s="48">
-        <v>21</v>
-      </c>
-      <c r="C39" s="24">
-        <v>62</v>
-      </c>
-      <c r="D39" s="50">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C39" s="80">
+        <v>44714</v>
+      </c>
+      <c r="D39" s="50"/>
       <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2352,37 +2343,34 @@
         <v>40</v>
       </c>
       <c r="B40" s="48">
-        <v>26</v>
-      </c>
-      <c r="C40" s="24">
-        <v>63</v>
-      </c>
-      <c r="D40" s="50">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="80">
+        <v>44715</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M40" s="43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N40" s="53" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,16 +2378,14 @@
         <v>41</v>
       </c>
       <c r="B41" s="48">
-        <v>28</v>
-      </c>
-      <c r="C41" s="24">
-        <v>64</v>
-      </c>
-      <c r="D41" s="50">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C41" s="80">
+        <v>44716</v>
+      </c>
+      <c r="D41" s="50"/>
       <c r="G41" s="38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="56"/>
@@ -2414,14 +2400,12 @@
         <v>42</v>
       </c>
       <c r="B42" s="48">
-        <v>16</v>
-      </c>
-      <c r="C42" s="24">
-        <v>65</v>
-      </c>
-      <c r="D42" s="50">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C42" s="80">
+        <v>44717</v>
+      </c>
+      <c r="D42" s="50"/>
       <c r="G42" s="39" t="s">
         <v>42</v>
       </c>
@@ -2438,21 +2422,22 @@
         <v>43</v>
       </c>
       <c r="B43" s="48">
-        <v>22</v>
-      </c>
-      <c r="C43" s="25">
-        <v>66</v>
-      </c>
-      <c r="D43" s="51">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C43" s="80">
+        <v>44718</v>
+      </c>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44</v>
       </c>
       <c r="B44" s="48">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C44" s="80">
+        <v>44719</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2460,7 +2445,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="48">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="80">
+        <v>44720</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2468,7 +2456,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="48">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C46" s="80">
+        <v>44721</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2476,7 +2467,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="48">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="80">
+        <v>44722</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2484,152 +2478,197 @@
         <v>48</v>
       </c>
       <c r="B48" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C48" s="80">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>49</v>
       </c>
       <c r="B49" s="50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C49" s="80">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>50</v>
       </c>
       <c r="B50" s="50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C50" s="80">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>51</v>
       </c>
       <c r="B51" s="50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C51" s="80">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>52</v>
       </c>
       <c r="B52" s="50">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C52" s="80">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>53</v>
       </c>
       <c r="B53" s="50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C53" s="80">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>54</v>
       </c>
       <c r="B54" s="50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C54" s="79">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>55</v>
       </c>
       <c r="B55" s="50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C55" s="79">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>56</v>
       </c>
       <c r="B56" s="50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C56" s="79">
+        <v>44745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>57</v>
       </c>
       <c r="B57" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C57" s="79">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>58</v>
       </c>
       <c r="B58" s="50">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C58" s="79">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>59</v>
       </c>
       <c r="B59" s="50">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C59" s="79">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>60</v>
       </c>
-      <c r="B60" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="50"/>
+      <c r="C60" s="79">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>61</v>
       </c>
       <c r="B61" s="50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C61" s="79">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>62</v>
       </c>
       <c r="B62" s="50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C62" s="79">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>63</v>
       </c>
       <c r="B63" s="50">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C63" s="79">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>64</v>
       </c>
       <c r="B64" s="50">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C64" s="79">
+        <v>44805</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>65</v>
       </c>
-      <c r="B65" s="50">
-        <v>26</v>
-      </c>
+      <c r="B65" s="50"/>
     </row>
     <row r="66" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="51">
-        <v>29</v>
-      </c>
+      <c r="B66" s="51"/>
     </row>
     <row r="67" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
@@ -2637,11 +2676,11 @@
       </c>
       <c r="B67" s="22">
         <f>SUM(B2:B66)</f>
-        <v>1460</v>
+        <v>1405</v>
       </c>
       <c r="C67" s="18">
         <f>B67/60</f>
-        <v>24.333333333333332</v>
+        <v>23.416666666666668</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2650,7 +2689,7 @@
       </c>
       <c r="B68" s="20">
         <f>B67/47</f>
-        <v>31.063829787234042</v>
+        <v>29.893617021276597</v>
       </c>
       <c r="C68" s="21"/>
     </row>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286E6F2-BAAF-45BA-B244-E25E6FEB3D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5749D-BFB0-4E1E-AEB5-D954A287C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -899,6 +899,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,18 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,12 +1308,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1339,17 +1339,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="70" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1375,15 +1375,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1409,14 +1409,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,12 +1558,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1616,17 +1616,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="70" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -1951,10 +1951,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="81">
+      <c r="A23" s="71">
         <v>23</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="72">
         <v>47</v>
       </c>
       <c r="C23" s="26"/>
@@ -1966,9 +1966,10 @@
       <c r="B24" s="48">
         <v>29</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="73">
         <v>44683</v>
       </c>
+      <c r="D24" s="49"/>
       <c r="M24" s="68" t="s">
         <v>55</v>
       </c>
@@ -1983,9 +1984,10 @@
       <c r="B25" s="48">
         <v>15</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="70">
         <v>44684</v>
       </c>
+      <c r="D25" s="48"/>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
       <c r="M25" s="13" t="s">
@@ -2002,7 +2004,7 @@
       <c r="B26" s="48">
         <v>18</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="70">
         <v>44685</v>
       </c>
       <c r="D26" s="50"/>
@@ -2027,7 +2029,7 @@
       <c r="B27" s="48">
         <v>23</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="70">
         <v>44686</v>
       </c>
       <c r="D27" s="50"/>
@@ -2042,7 +2044,7 @@
       <c r="B28" s="48">
         <v>17</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="70">
         <v>44687</v>
       </c>
       <c r="D28" s="50"/>
@@ -2078,7 +2080,7 @@
       <c r="B29" s="48">
         <v>33</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="70">
         <v>44688</v>
       </c>
       <c r="D29" s="50"/>
@@ -2098,10 +2100,10 @@
         <v>86</v>
       </c>
       <c r="L29" s="14"/>
-      <c r="M29" s="70" t="s">
+      <c r="M29" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="72"/>
+      <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2110,7 +2112,7 @@
       <c r="B30" s="48">
         <v>23</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="70">
         <v>44689</v>
       </c>
       <c r="D30" s="50"/>
@@ -2123,7 +2125,7 @@
       </c>
       <c r="I30" s="29">
         <f>SUM(B59:B60)</f>
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="J30" s="29">
         <f>SUM(B61:B62)</f>
@@ -2147,7 +2149,7 @@
       <c r="B31" s="48">
         <v>17</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="70">
         <v>44690</v>
       </c>
       <c r="D31" s="50"/>
@@ -2159,7 +2161,7 @@
       <c r="B32" s="48">
         <v>23</v>
       </c>
-      <c r="C32" s="79">
+      <c r="C32" s="70">
         <v>44691</v>
       </c>
       <c r="D32" s="50"/>
@@ -2195,7 +2197,7 @@
       <c r="B33" s="48">
         <v>25</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="70">
         <v>44692</v>
       </c>
       <c r="D33" s="50"/>
@@ -2217,7 +2219,7 @@
       <c r="B34" s="48">
         <v>20</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="70">
         <v>44693</v>
       </c>
       <c r="D34" s="50"/>
@@ -2239,7 +2241,7 @@
       <c r="B35" s="48">
         <v>34</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="70">
         <v>44694</v>
       </c>
       <c r="D35" s="50"/>
@@ -2252,7 +2254,7 @@
       <c r="B36" s="48">
         <v>24</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="70">
         <v>44695</v>
       </c>
       <c r="D36" s="50"/>
@@ -2288,7 +2290,7 @@
       <c r="B37" s="48">
         <v>20</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="70">
         <v>44696</v>
       </c>
       <c r="D37" s="50"/>
@@ -2310,7 +2312,7 @@
       <c r="B38" s="48">
         <v>18</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="70">
         <v>44713</v>
       </c>
       <c r="D38" s="50"/>
@@ -2332,7 +2334,7 @@
       <c r="B39" s="48">
         <v>40</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C39" s="70">
         <v>44714</v>
       </c>
       <c r="D39" s="50"/>
@@ -2345,9 +2347,10 @@
       <c r="B40" s="48">
         <v>3</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="70">
         <v>44715</v>
       </c>
+      <c r="D40" s="48"/>
       <c r="G40" s="35" t="s">
         <v>54</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="B41" s="48">
         <v>5</v>
       </c>
-      <c r="C41" s="80">
+      <c r="C41" s="70">
         <v>44716</v>
       </c>
       <c r="D41" s="50"/>
@@ -2402,7 +2405,7 @@
       <c r="B42" s="48">
         <v>20</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="70">
         <v>44717</v>
       </c>
       <c r="D42" s="50"/>
@@ -2424,7 +2427,7 @@
       <c r="B43" s="48">
         <v>21</v>
       </c>
-      <c r="C43" s="80">
+      <c r="C43" s="70">
         <v>44718</v>
       </c>
       <c r="D43" s="51"/>
@@ -2436,7 +2439,7 @@
       <c r="B44" s="48">
         <v>17</v>
       </c>
-      <c r="C44" s="80">
+      <c r="C44" s="70">
         <v>44719</v>
       </c>
     </row>
@@ -2447,7 +2450,7 @@
       <c r="B45" s="48">
         <v>26</v>
       </c>
-      <c r="C45" s="80">
+      <c r="C45" s="70">
         <v>44720</v>
       </c>
     </row>
@@ -2458,7 +2461,7 @@
       <c r="B46" s="48">
         <v>16</v>
       </c>
-      <c r="C46" s="80">
+      <c r="C46" s="70">
         <v>44721</v>
       </c>
     </row>
@@ -2469,7 +2472,7 @@
       <c r="B47" s="48">
         <v>8</v>
       </c>
-      <c r="C47" s="80">
+      <c r="C47" s="70">
         <v>44722</v>
       </c>
     </row>
@@ -2480,7 +2483,7 @@
       <c r="B48" s="48">
         <v>38</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="70">
         <v>44723</v>
       </c>
     </row>
@@ -2491,7 +2494,7 @@
       <c r="B49" s="50">
         <v>26</v>
       </c>
-      <c r="C49" s="80">
+      <c r="C49" s="70">
         <v>44724</v>
       </c>
     </row>
@@ -2502,7 +2505,7 @@
       <c r="B50" s="50">
         <v>24</v>
       </c>
-      <c r="C50" s="80">
+      <c r="C50" s="70">
         <v>44725</v>
       </c>
     </row>
@@ -2513,7 +2516,7 @@
       <c r="B51" s="50">
         <v>38</v>
       </c>
-      <c r="C51" s="80">
+      <c r="C51" s="70">
         <v>44726</v>
       </c>
     </row>
@@ -2524,7 +2527,7 @@
       <c r="B52" s="50">
         <v>21</v>
       </c>
-      <c r="C52" s="80">
+      <c r="C52" s="70">
         <v>44727</v>
       </c>
     </row>
@@ -2535,7 +2538,7 @@
       <c r="B53" s="50">
         <v>26</v>
       </c>
-      <c r="C53" s="80">
+      <c r="C53" s="70">
         <v>44728</v>
       </c>
     </row>
@@ -2546,7 +2549,7 @@
       <c r="B54" s="50">
         <v>22</v>
       </c>
-      <c r="C54" s="79">
+      <c r="C54" s="70">
         <v>44743</v>
       </c>
     </row>
@@ -2557,7 +2560,7 @@
       <c r="B55" s="50">
         <v>13</v>
       </c>
-      <c r="C55" s="79">
+      <c r="C55" s="70">
         <v>44744</v>
       </c>
     </row>
@@ -2568,7 +2571,7 @@
       <c r="B56" s="50">
         <v>27</v>
       </c>
-      <c r="C56" s="79">
+      <c r="C56" s="70">
         <v>44745</v>
       </c>
     </row>
@@ -2579,7 +2582,7 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="79">
+      <c r="C57" s="70">
         <v>44746</v>
       </c>
     </row>
@@ -2590,7 +2593,7 @@
       <c r="B58" s="50">
         <v>18</v>
       </c>
-      <c r="C58" s="79">
+      <c r="C58" s="70">
         <v>44774</v>
       </c>
     </row>
@@ -2601,7 +2604,7 @@
       <c r="B59" s="50">
         <v>25</v>
       </c>
-      <c r="C59" s="79">
+      <c r="C59" s="70">
         <v>44775</v>
       </c>
     </row>
@@ -2609,8 +2612,10 @@
       <c r="A60" s="24">
         <v>60</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="79">
+      <c r="B60" s="50">
+        <v>46</v>
+      </c>
+      <c r="C60" s="70">
         <v>44776</v>
       </c>
     </row>
@@ -2621,7 +2626,7 @@
       <c r="B61" s="50">
         <v>29</v>
       </c>
-      <c r="C61" s="79">
+      <c r="C61" s="70">
         <v>44777</v>
       </c>
     </row>
@@ -2632,7 +2637,7 @@
       <c r="B62" s="50">
         <v>21</v>
       </c>
-      <c r="C62" s="79">
+      <c r="C62" s="70">
         <v>44778</v>
       </c>
     </row>
@@ -2643,7 +2648,7 @@
       <c r="B63" s="50">
         <v>26</v>
       </c>
-      <c r="C63" s="79">
+      <c r="C63" s="70">
         <v>44779</v>
       </c>
     </row>
@@ -2654,7 +2659,7 @@
       <c r="B64" s="50">
         <v>29</v>
       </c>
-      <c r="C64" s="79">
+      <c r="C64" s="70">
         <v>44805</v>
       </c>
     </row>
@@ -2663,12 +2668,14 @@
         <v>65</v>
       </c>
       <c r="B65" s="50"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>66</v>
       </c>
       <c r="B66" s="51"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
@@ -2676,11 +2683,11 @@
       </c>
       <c r="B67" s="22">
         <f>SUM(B2:B66)</f>
-        <v>1405</v>
+        <v>1451</v>
       </c>
       <c r="C67" s="18">
         <f>B67/60</f>
-        <v>23.416666666666668</v>
+        <v>24.183333333333334</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2689,7 +2696,7 @@
       </c>
       <c r="B68" s="20">
         <f>B67/47</f>
-        <v>29.893617021276597</v>
+        <v>30.872340425531913</v>
       </c>
       <c r="C68" s="21"/>
     </row>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5749D-BFB0-4E1E-AEB5-D954A287C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F8103-0AB6-4542-B686-78AF43AD9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,10 @@
   </si>
   <si>
     <t>61, 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65, 66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +941,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2099,7 +2109,9 @@
       <c r="K29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="M29" s="74" t="s">
         <v>51</v>
       </c>
@@ -2137,7 +2149,7 @@
       </c>
       <c r="L30" s="69">
         <f>SUM(B65:B66)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="34"/>
@@ -2667,15 +2679,23 @@
       <c r="A65" s="24">
         <v>65</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="50">
+        <v>28</v>
+      </c>
+      <c r="C65" s="83">
+        <v>36161</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="51">
+        <v>16</v>
+      </c>
+      <c r="C66" s="84">
+        <v>36192</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
@@ -2683,11 +2703,11 @@
       </c>
       <c r="B67" s="22">
         <f>SUM(B2:B66)</f>
-        <v>1451</v>
+        <v>1495</v>
       </c>
       <c r="C67" s="18">
         <f>B67/60</f>
-        <v>24.183333333333334</v>
+        <v>24.916666666666668</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2696,7 +2716,7 @@
       </c>
       <c r="B68" s="20">
         <f>B67/47</f>
-        <v>30.872340425531913</v>
+        <v>31.808510638297872</v>
       </c>
       <c r="C68" s="21"/>
     </row>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F8103-0AB6-4542-B686-78AF43AD9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC383148-733D-4C4F-8539-3063E6E72BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,97 @@
   </si>
   <si>
     <t>65, 66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지-2</t>
+  </si>
+  <si>
+    <t>메시지-3</t>
+  </si>
+  <si>
+    <t>메시지-4</t>
+  </si>
+  <si>
+    <t>메시지-5</t>
+  </si>
+  <si>
+    <t>메시지-6</t>
+  </si>
+  <si>
+    <t>메시지-7</t>
+  </si>
+  <si>
+    <t>메시지-8</t>
+  </si>
+  <si>
+    <t>web_jsp_117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요-2</t>
+  </si>
+  <si>
+    <t>좋아요-3</t>
+  </si>
+  <si>
+    <t>좋아요-4</t>
+  </si>
+  <si>
+    <t>web_jsp_122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_jsp_123</t>
+  </si>
+  <si>
+    <t>web_jsp_124</t>
+  </si>
+  <si>
+    <t>web_jsp_125</t>
+  </si>
+  <si>
+    <t>68, 69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72, 73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74, 75, 76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,13 +940,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,12 +1003,24 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,12 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,12 +1412,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1349,17 +1443,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="74" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1385,15 +1479,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1419,14 +1513,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1473,15 +1567,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1568,12 +1663,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="82"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1626,17 +1721,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="74" t="s">
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="76"/>
+      <c r="N9" s="79"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -1961,10 +2056,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71">
+      <c r="A23" s="70">
         <v>23</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="71">
         <v>47</v>
       </c>
       <c r="C23" s="26"/>
@@ -1976,11 +2071,11 @@
       <c r="B24" s="48">
         <v>29</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="72">
         <v>44683</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="M24" s="68" t="s">
+      <c r="M24" s="67" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="42" t="s">
@@ -1994,12 +2089,12 @@
       <c r="B25" s="48">
         <v>15</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="69">
         <v>44684</v>
       </c>
       <c r="D25" s="48"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="13" t="s">
         <v>95</v>
       </c>
@@ -2014,15 +2109,15 @@
       <c r="B26" s="48">
         <v>18</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="69">
         <v>44685</v>
       </c>
       <c r="D26" s="50"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="32">
         <f>SUM(B50:B51)</f>
         <v>62</v>
@@ -2039,7 +2134,7 @@
       <c r="B27" s="48">
         <v>23</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="69">
         <v>44686</v>
       </c>
       <c r="D27" s="50"/>
@@ -2054,7 +2149,7 @@
       <c r="B28" s="48">
         <v>17</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="69">
         <v>44687</v>
       </c>
       <c r="D28" s="50"/>
@@ -2090,7 +2185,7 @@
       <c r="B29" s="48">
         <v>33</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <v>44688</v>
       </c>
       <c r="D29" s="50"/>
@@ -2112,10 +2207,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="74" t="s">
+      <c r="M29" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="76"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2124,7 +2219,7 @@
       <c r="B30" s="48">
         <v>23</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="69">
         <v>44689</v>
       </c>
       <c r="D30" s="50"/>
@@ -2147,9 +2242,9 @@
         <f>SUM(B63:B64)</f>
         <v>55</v>
       </c>
-      <c r="L30" s="69">
+      <c r="L30" s="68">
         <f>SUM(B65:B66)</f>
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="34"/>
@@ -2161,7 +2256,7 @@
       <c r="B31" s="48">
         <v>17</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="69">
         <v>44690</v>
       </c>
       <c r="D31" s="50"/>
@@ -2173,7 +2268,7 @@
       <c r="B32" s="48">
         <v>23</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="69">
         <v>44691</v>
       </c>
       <c r="D32" s="50"/>
@@ -2209,20 +2304,32 @@
       <c r="B33" s="48">
         <v>25</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="69">
         <v>44692</v>
       </c>
       <c r="D33" s="50"/>
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="65"/>
+      <c r="H33" s="74">
+        <v>67</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="75">
+        <v>70</v>
+      </c>
+      <c r="K33" s="75">
+        <v>71</v>
+      </c>
+      <c r="L33" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="64"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2231,19 +2338,34 @@
       <c r="B34" s="48">
         <v>20</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="69">
         <v>44693</v>
       </c>
       <c r="D34" s="50"/>
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
+      <c r="H34" s="32">
+        <v>42</v>
+      </c>
+      <c r="I34" s="33">
+        <f>21+32</f>
+        <v>53</v>
+      </c>
+      <c r="J34" s="33">
+        <v>59</v>
+      </c>
+      <c r="K34" s="33">
+        <v>69</v>
+      </c>
+      <c r="L34" s="33">
+        <f>25+32</f>
+        <v>57</v>
+      </c>
+      <c r="M34" s="33">
+        <f>25+26+5</f>
+        <v>56</v>
+      </c>
       <c r="N34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2253,7 +2375,7 @@
       <c r="B35" s="48">
         <v>34</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="69">
         <v>44694</v>
       </c>
       <c r="D35" s="50"/>
@@ -2266,7 +2388,7 @@
       <c r="B36" s="48">
         <v>24</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="69">
         <v>44695</v>
       </c>
       <c r="D36" s="50"/>
@@ -2302,20 +2424,20 @@
       <c r="B37" s="48">
         <v>20</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="69">
         <v>44696</v>
       </c>
       <c r="D37" s="50"/>
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2324,19 +2446,19 @@
       <c r="B38" s="48">
         <v>18</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <v>44713</v>
       </c>
       <c r="D38" s="50"/>
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="58"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="57"/>
       <c r="N38" s="51"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2346,7 +2468,7 @@
       <c r="B39" s="48">
         <v>40</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="69">
         <v>44714</v>
       </c>
       <c r="D39" s="50"/>
@@ -2359,7 +2481,7 @@
       <c r="B40" s="48">
         <v>3</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="69">
         <v>44715</v>
       </c>
       <c r="D40" s="48"/>
@@ -2384,7 +2506,7 @@
       <c r="M40" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="N40" s="52" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2395,20 +2517,20 @@
       <c r="B41" s="48">
         <v>5</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="69">
         <v>44716</v>
       </c>
       <c r="D41" s="50"/>
       <c r="G41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="64"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="63"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
@@ -2417,18 +2539,18 @@
       <c r="B42" s="48">
         <v>20</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="69">
         <v>44717</v>
       </c>
       <c r="D42" s="50"/>
       <c r="G42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="62"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
       <c r="M42" s="26"/>
       <c r="N42" s="11"/>
     </row>
@@ -2439,7 +2561,7 @@
       <c r="B43" s="48">
         <v>21</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="69">
         <v>44718</v>
       </c>
       <c r="D43" s="51"/>
@@ -2451,7 +2573,7 @@
       <c r="B44" s="48">
         <v>17</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="69">
         <v>44719</v>
       </c>
     </row>
@@ -2462,7 +2584,7 @@
       <c r="B45" s="48">
         <v>26</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="69">
         <v>44720</v>
       </c>
     </row>
@@ -2473,8 +2595,14 @@
       <c r="B46" s="48">
         <v>16</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="69">
         <v>44721</v>
+      </c>
+      <c r="E46" s="24">
+        <v>67</v>
+      </c>
+      <c r="F46" s="50">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2484,8 +2612,14 @@
       <c r="B47" s="48">
         <v>8</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <v>44722</v>
+      </c>
+      <c r="E47" s="24">
+        <v>68</v>
+      </c>
+      <c r="F47" s="50">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2495,230 +2629,422 @@
       <c r="B48" s="48">
         <v>38</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="69">
         <v>44723</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" s="24">
+        <v>69</v>
+      </c>
+      <c r="F48" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>49</v>
       </c>
       <c r="B49" s="50">
         <v>26</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="69">
         <v>44724</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49" s="25">
+        <v>70</v>
+      </c>
+      <c r="F49" s="50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>50</v>
       </c>
       <c r="B50" s="50">
         <v>24</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="69">
         <v>44725</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50" s="24">
+        <v>71</v>
+      </c>
+      <c r="F50" s="50">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>51</v>
       </c>
       <c r="B51" s="50">
         <v>38</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="69">
         <v>44726</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51" s="24">
+        <v>72</v>
+      </c>
+      <c r="F51" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>52</v>
       </c>
       <c r="B52" s="50">
         <v>21</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="69">
         <v>44727</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E52" s="24">
+        <v>73</v>
+      </c>
+      <c r="F52" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>53</v>
       </c>
       <c r="B53" s="50">
         <v>26</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="69">
         <v>44728</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53" s="24">
+        <v>74</v>
+      </c>
+      <c r="F53" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>54</v>
       </c>
       <c r="B54" s="50">
         <v>22</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="69">
         <v>44743</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E54" s="24">
+        <v>75</v>
+      </c>
+      <c r="F54" s="50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>55</v>
       </c>
       <c r="B55" s="50">
         <v>13</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="69">
         <v>44744</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55" s="24">
+        <v>76</v>
+      </c>
+      <c r="F55" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>56</v>
       </c>
       <c r="B56" s="50">
         <v>27</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <v>44745</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>57</v>
       </c>
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="69">
         <v>44746</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>58</v>
       </c>
       <c r="B58" s="50">
         <v>18</v>
       </c>
-      <c r="C58" s="70">
+      <c r="C58" s="69">
         <v>44774</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>59</v>
       </c>
       <c r="B59" s="50">
         <v>25</v>
       </c>
-      <c r="C59" s="70">
+      <c r="C59" s="69">
         <v>44775</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>60</v>
       </c>
       <c r="B60" s="50">
         <v>46</v>
       </c>
-      <c r="C60" s="70">
+      <c r="C60" s="69">
         <v>44776</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>61</v>
       </c>
       <c r="B61" s="50">
         <v>29</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="69">
         <v>44777</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>62</v>
       </c>
       <c r="B62" s="50">
         <v>21</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="69">
         <v>44778</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>63</v>
       </c>
       <c r="B63" s="50">
         <v>26</v>
       </c>
-      <c r="C63" s="70">
+      <c r="C63" s="69">
         <v>44779</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>64</v>
       </c>
       <c r="B64" s="50">
         <v>29</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="69">
         <v>44805</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>65</v>
       </c>
       <c r="B65" s="50">
-        <v>28</v>
-      </c>
-      <c r="C65" s="83">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>66</v>
       </c>
       <c r="B66" s="51">
-        <v>16</v>
-      </c>
-      <c r="C66" s="84">
-        <v>36192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
+        <v>67</v>
+      </c>
+      <c r="B67" s="50">
+        <v>42</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
+        <v>68</v>
+      </c>
+      <c r="B68" s="50">
+        <v>21</v>
+      </c>
+      <c r="C68" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <v>69</v>
+      </c>
+      <c r="B69" s="50">
+        <v>32</v>
+      </c>
+      <c r="C69" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="25">
+        <v>70</v>
+      </c>
+      <c r="B70" s="50">
+        <v>59</v>
+      </c>
+      <c r="C70" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
+        <v>71</v>
+      </c>
+      <c r="B71" s="50">
+        <v>69</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
+        <v>72</v>
+      </c>
+      <c r="B72" s="50">
+        <v>25</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
+        <v>73</v>
+      </c>
+      <c r="B73" s="50">
+        <v>32</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
+        <v>74</v>
+      </c>
+      <c r="B74" s="50">
+        <v>25</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="24">
+        <v>75</v>
+      </c>
+      <c r="B75" s="50">
+        <v>26</v>
+      </c>
+      <c r="C75" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
+        <v>76</v>
+      </c>
+      <c r="B76" s="50">
+        <v>5</v>
+      </c>
+      <c r="C76" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="22">
-        <f>SUM(B2:B66)</f>
-        <v>1495</v>
-      </c>
-      <c r="C67" s="18">
-        <f>B67/60</f>
-        <v>24.916666666666668</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="19" t="s">
+      <c r="B81" s="22">
+        <f>SUM(B2:B76)</f>
+        <v>1877</v>
+      </c>
+      <c r="C81" s="18">
+        <f>B81/60</f>
+        <v>31.283333333333335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="20">
-        <f>B67/47</f>
-        <v>31.808510638297872</v>
-      </c>
-      <c r="C68" s="21"/>
+      <c r="B82" s="20">
+        <f>B81/47</f>
+        <v>39.936170212765958</v>
+      </c>
+      <c r="C82" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC383148-733D-4C4F-8539-3063E6E72BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BDEAE6-6C2D-4CCF-A0E3-74E3909EC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="3765" yWindow="2235" windowWidth="23610" windowHeight="11385" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,15 +456,11 @@
     <t>web_jsp_125</t>
   </si>
   <si>
-    <t>68, 69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72, 73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74, 75, 76</t>
+    <t>메시지 구현하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 구현하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +561,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -783,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,21 +948,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,24 +993,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,6 +1018,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,12 +1411,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1443,17 +1442,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="77" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1479,15 +1478,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1513,14 +1512,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1569,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1663,12 +1662,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="85"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1721,17 +1720,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="77" t="s">
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="79"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2056,10 +2055,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70">
+      <c r="A23" s="66">
         <v>23</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="67">
         <v>47</v>
       </c>
       <c r="C23" s="26"/>
@@ -2071,11 +2070,11 @@
       <c r="B24" s="48">
         <v>29</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="68">
         <v>44683</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="63" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="42" t="s">
@@ -2089,12 +2088,12 @@
       <c r="B25" s="48">
         <v>15</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="65">
         <v>44684</v>
       </c>
       <c r="D25" s="48"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="13" t="s">
         <v>95</v>
       </c>
@@ -2109,15 +2108,15 @@
       <c r="B26" s="48">
         <v>18</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="65">
         <v>44685</v>
       </c>
       <c r="D26" s="50"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="32">
         <f>SUM(B50:B51)</f>
         <v>62</v>
@@ -2134,7 +2133,7 @@
       <c r="B27" s="48">
         <v>23</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="65">
         <v>44686</v>
       </c>
       <c r="D27" s="50"/>
@@ -2149,7 +2148,7 @@
       <c r="B28" s="48">
         <v>17</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="65">
         <v>44687</v>
       </c>
       <c r="D28" s="50"/>
@@ -2174,7 +2173,7 @@
       <c r="M28" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="63" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2185,7 +2184,7 @@
       <c r="B29" s="48">
         <v>33</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="65">
         <v>44688</v>
       </c>
       <c r="D29" s="50"/>
@@ -2207,10 +2206,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="77" t="s">
+      <c r="M29" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="79"/>
+      <c r="N29" s="71"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2219,7 +2218,7 @@
       <c r="B30" s="48">
         <v>23</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="65">
         <v>44689</v>
       </c>
       <c r="D30" s="50"/>
@@ -2242,7 +2241,7 @@
         <f>SUM(B63:B64)</f>
         <v>55</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="64">
         <f>SUM(B65:B66)</f>
         <v>90</v>
       </c>
@@ -2256,7 +2255,7 @@
       <c r="B31" s="48">
         <v>17</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="65">
         <v>44690</v>
       </c>
       <c r="D31" s="50"/>
@@ -2268,7 +2267,7 @@
       <c r="B32" s="48">
         <v>23</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="65">
         <v>44691</v>
       </c>
       <c r="D32" s="50"/>
@@ -2293,7 +2292,7 @@
       <c r="M32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="84" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2304,32 +2303,22 @@
       <c r="B33" s="48">
         <v>25</v>
       </c>
-      <c r="C33" s="69">
+      <c r="C33" s="65">
         <v>44692</v>
       </c>
       <c r="D33" s="50"/>
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="74">
-        <v>67</v>
-      </c>
-      <c r="I33" s="75" t="s">
+      <c r="H33" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="75">
-        <v>70</v>
-      </c>
-      <c r="K33" s="75">
-        <v>71</v>
-      </c>
-      <c r="L33" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="M33" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="N33" s="64"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2338,35 +2327,20 @@
       <c r="B34" s="48">
         <v>20</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="65">
         <v>44693</v>
       </c>
       <c r="D34" s="50"/>
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="32">
-        <v>42</v>
-      </c>
-      <c r="I34" s="33">
-        <f>21+32</f>
-        <v>53</v>
-      </c>
-      <c r="J34" s="33">
-        <v>59</v>
-      </c>
-      <c r="K34" s="33">
-        <v>69</v>
-      </c>
-      <c r="L34" s="33">
-        <f>25+32</f>
-        <v>57</v>
-      </c>
-      <c r="M34" s="33">
-        <f>25+26+5</f>
-        <v>56</v>
-      </c>
-      <c r="N34" s="51"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="83"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -2375,7 +2349,7 @@
       <c r="B35" s="48">
         <v>34</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="65">
         <v>44694</v>
       </c>
       <c r="D35" s="50"/>
@@ -2388,7 +2362,7 @@
       <c r="B36" s="48">
         <v>24</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="65">
         <v>44695</v>
       </c>
       <c r="D36" s="50"/>
@@ -2413,7 +2387,7 @@
       <c r="M36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="43" t="s">
+      <c r="N36" s="84" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2424,20 +2398,22 @@
       <c r="B37" s="48">
         <v>20</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="65">
         <v>44696</v>
       </c>
       <c r="D37" s="50"/>
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
+      <c r="H37" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2446,20 +2422,20 @@
       <c r="B38" s="48">
         <v>18</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="65">
         <v>44713</v>
       </c>
       <c r="D38" s="50"/>
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="51"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="83"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -2468,7 +2444,7 @@
       <c r="B39" s="48">
         <v>40</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="65">
         <v>44714</v>
       </c>
       <c r="D39" s="50"/>
@@ -2481,7 +2457,7 @@
       <c r="B40" s="48">
         <v>3</v>
       </c>
-      <c r="C40" s="69">
+      <c r="C40" s="65">
         <v>44715</v>
       </c>
       <c r="D40" s="48"/>
@@ -2517,7 +2493,7 @@
       <c r="B41" s="48">
         <v>5</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="65">
         <v>44716</v>
       </c>
       <c r="D41" s="50"/>
@@ -2525,12 +2501,12 @@
         <v>52</v>
       </c>
       <c r="H41" s="53"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="63"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="59"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
@@ -2539,18 +2515,18 @@
       <c r="B42" s="48">
         <v>20</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C42" s="65">
         <v>44717</v>
       </c>
       <c r="D42" s="50"/>
       <c r="G42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="57"/>
       <c r="M42" s="26"/>
       <c r="N42" s="11"/>
     </row>
@@ -2561,7 +2537,7 @@
       <c r="B43" s="48">
         <v>21</v>
       </c>
-      <c r="C43" s="69">
+      <c r="C43" s="65">
         <v>44718</v>
       </c>
       <c r="D43" s="51"/>
@@ -2573,7 +2549,7 @@
       <c r="B44" s="48">
         <v>17</v>
       </c>
-      <c r="C44" s="69">
+      <c r="C44" s="65">
         <v>44719</v>
       </c>
     </row>
@@ -2584,7 +2560,7 @@
       <c r="B45" s="48">
         <v>26</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="65">
         <v>44720</v>
       </c>
     </row>
@@ -2595,7 +2571,7 @@
       <c r="B46" s="48">
         <v>16</v>
       </c>
-      <c r="C46" s="69">
+      <c r="C46" s="65">
         <v>44721</v>
       </c>
       <c r="E46" s="24">
@@ -2612,7 +2588,7 @@
       <c r="B47" s="48">
         <v>8</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="65">
         <v>44722</v>
       </c>
       <c r="E47" s="24">
@@ -2629,7 +2605,7 @@
       <c r="B48" s="48">
         <v>38</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="65">
         <v>44723</v>
       </c>
       <c r="E48" s="24">
@@ -2646,7 +2622,7 @@
       <c r="B49" s="50">
         <v>26</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="65">
         <v>44724</v>
       </c>
       <c r="E49" s="25">
@@ -2663,7 +2639,7 @@
       <c r="B50" s="50">
         <v>24</v>
       </c>
-      <c r="C50" s="69">
+      <c r="C50" s="65">
         <v>44725</v>
       </c>
       <c r="E50" s="24">
@@ -2680,7 +2656,7 @@
       <c r="B51" s="50">
         <v>38</v>
       </c>
-      <c r="C51" s="69">
+      <c r="C51" s="65">
         <v>44726</v>
       </c>
       <c r="E51" s="24">
@@ -2697,7 +2673,7 @@
       <c r="B52" s="50">
         <v>21</v>
       </c>
-      <c r="C52" s="69">
+      <c r="C52" s="65">
         <v>44727</v>
       </c>
       <c r="E52" s="24">
@@ -2714,7 +2690,7 @@
       <c r="B53" s="50">
         <v>26</v>
       </c>
-      <c r="C53" s="69">
+      <c r="C53" s="65">
         <v>44728</v>
       </c>
       <c r="E53" s="24">
@@ -2731,7 +2707,7 @@
       <c r="B54" s="50">
         <v>22</v>
       </c>
-      <c r="C54" s="69">
+      <c r="C54" s="65">
         <v>44743</v>
       </c>
       <c r="E54" s="24">
@@ -2748,7 +2724,7 @@
       <c r="B55" s="50">
         <v>13</v>
       </c>
-      <c r="C55" s="69">
+      <c r="C55" s="65">
         <v>44744</v>
       </c>
       <c r="E55" s="24">
@@ -2765,7 +2741,7 @@
       <c r="B56" s="50">
         <v>27</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="65">
         <v>44745</v>
       </c>
     </row>
@@ -2776,7 +2752,7 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="69">
+      <c r="C57" s="65">
         <v>44746</v>
       </c>
     </row>
@@ -2787,7 +2763,7 @@
       <c r="B58" s="50">
         <v>18</v>
       </c>
-      <c r="C58" s="69">
+      <c r="C58" s="65">
         <v>44774</v>
       </c>
     </row>
@@ -2798,7 +2774,7 @@
       <c r="B59" s="50">
         <v>25</v>
       </c>
-      <c r="C59" s="69">
+      <c r="C59" s="65">
         <v>44775</v>
       </c>
     </row>
@@ -2809,7 +2785,7 @@
       <c r="B60" s="50">
         <v>46</v>
       </c>
-      <c r="C60" s="69">
+      <c r="C60" s="65">
         <v>44776</v>
       </c>
     </row>
@@ -2820,7 +2796,7 @@
       <c r="B61" s="50">
         <v>29</v>
       </c>
-      <c r="C61" s="69">
+      <c r="C61" s="65">
         <v>44777</v>
       </c>
     </row>
@@ -2831,7 +2807,7 @@
       <c r="B62" s="50">
         <v>21</v>
       </c>
-      <c r="C62" s="69">
+      <c r="C62" s="65">
         <v>44778</v>
       </c>
     </row>
@@ -2842,7 +2818,7 @@
       <c r="B63" s="50">
         <v>26</v>
       </c>
-      <c r="C63" s="69">
+      <c r="C63" s="65">
         <v>44779</v>
       </c>
     </row>
@@ -2853,7 +2829,7 @@
       <c r="B64" s="50">
         <v>29</v>
       </c>
-      <c r="C64" s="69">
+      <c r="C64" s="65">
         <v>44805</v>
       </c>
     </row>
@@ -2861,10 +2837,10 @@
       <c r="A65" s="24">
         <v>65</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="78">
         <v>59</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="79" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2872,10 +2848,10 @@
       <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="51">
+      <c r="B66" s="80">
         <v>31</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="79" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2883,10 +2859,10 @@
       <c r="A67" s="24">
         <v>67</v>
       </c>
-      <c r="B67" s="50">
+      <c r="B67" s="78">
         <v>42</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="79" t="s">
         <v>102</v>
       </c>
       <c r="D67" t="s">
@@ -2897,10 +2873,10 @@
       <c r="A68" s="24">
         <v>68</v>
       </c>
-      <c r="B68" s="50">
+      <c r="B68" s="78">
         <v>21</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="79" t="s">
         <v>103</v>
       </c>
       <c r="D68" t="s">
@@ -2911,10 +2887,10 @@
       <c r="A69" s="24">
         <v>69</v>
       </c>
-      <c r="B69" s="50">
+      <c r="B69" s="78">
         <v>32</v>
       </c>
-      <c r="C69" s="73" t="s">
+      <c r="C69" s="79" t="s">
         <v>104</v>
       </c>
       <c r="D69" t="s">
@@ -2925,10 +2901,10 @@
       <c r="A70" s="25">
         <v>70</v>
       </c>
-      <c r="B70" s="50">
+      <c r="B70" s="78">
         <v>59</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="C70" s="79" t="s">
         <v>105</v>
       </c>
       <c r="D70" t="s">
@@ -2942,10 +2918,10 @@
       <c r="A71" s="24">
         <v>71</v>
       </c>
-      <c r="B71" s="50">
+      <c r="B71" s="78">
         <v>69</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="79" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
@@ -2956,10 +2932,10 @@
       <c r="A72" s="24">
         <v>72</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="78">
         <v>25</v>
       </c>
-      <c r="C72" s="73" t="s">
+      <c r="C72" s="79" t="s">
         <v>107</v>
       </c>
       <c r="D72" t="s">
@@ -2970,10 +2946,10 @@
       <c r="A73" s="24">
         <v>73</v>
       </c>
-      <c r="B73" s="50">
+      <c r="B73" s="78">
         <v>32</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="79" t="s">
         <v>115</v>
       </c>
       <c r="D73" t="s">
@@ -2984,10 +2960,10 @@
       <c r="A74" s="24">
         <v>74</v>
       </c>
-      <c r="B74" s="50">
+      <c r="B74" s="78">
         <v>25</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="79" t="s">
         <v>116</v>
       </c>
       <c r="D74" t="s">
@@ -2998,10 +2974,10 @@
       <c r="A75" s="24">
         <v>75</v>
       </c>
-      <c r="B75" s="50">
+      <c r="B75" s="78">
         <v>26</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="79" t="s">
         <v>117</v>
       </c>
       <c r="D75" t="s">
@@ -3012,10 +2988,10 @@
       <c r="A76" s="24">
         <v>76</v>
       </c>
-      <c r="B76" s="50">
+      <c r="B76" s="78">
         <v>5</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="79" t="s">
         <v>118</v>
       </c>
       <c r="D76" t="s">
@@ -3047,11 +3023,15 @@
       <c r="C82" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H37:N37"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="H34:N34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BDEAE6-6C2D-4CCF-A0E3-74E3909EC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F9E37-A109-417F-9E4E-7D3151DD03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2235" windowWidth="23610" windowHeight="11385" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,11 +456,7 @@
     <t>web_jsp_125</t>
   </si>
   <si>
-    <t>메시지 구현하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 구현하기</t>
+    <t>개발 환경 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,6 +989,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,28 +1025,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,12 +1407,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1442,17 +1438,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="69" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1478,15 +1474,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1512,14 +1508,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1569,7 +1565,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1662,12 +1658,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="84"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1720,17 +1716,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="69" t="s">
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="75"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2206,10 +2202,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="69" t="s">
+      <c r="M29" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="75"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2292,7 +2288,7 @@
       <c r="M32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="84" t="s">
+      <c r="N32" s="72" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2310,15 +2306,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="71"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2387,7 +2381,7 @@
       <c r="M36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="84" t="s">
+      <c r="N36" s="72" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2405,15 +2399,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="71"/>
+      <c r="H37" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="75"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2837,10 +2831,10 @@
       <c r="A65" s="24">
         <v>65</v>
       </c>
-      <c r="B65" s="78">
+      <c r="B65" s="69">
         <v>59</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="70" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2848,10 +2842,10 @@
       <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="80">
+      <c r="B66" s="71">
         <v>31</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="70" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2859,10 +2853,10 @@
       <c r="A67" s="24">
         <v>67</v>
       </c>
-      <c r="B67" s="78">
+      <c r="B67" s="69">
         <v>42</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="70" t="s">
         <v>102</v>
       </c>
       <c r="D67" t="s">
@@ -2873,10 +2867,10 @@
       <c r="A68" s="24">
         <v>68</v>
       </c>
-      <c r="B68" s="78">
+      <c r="B68" s="69">
         <v>21</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="70" t="s">
         <v>103</v>
       </c>
       <c r="D68" t="s">
@@ -2887,10 +2881,10 @@
       <c r="A69" s="24">
         <v>69</v>
       </c>
-      <c r="B69" s="78">
+      <c r="B69" s="69">
         <v>32</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D69" t="s">
@@ -2901,10 +2895,10 @@
       <c r="A70" s="25">
         <v>70</v>
       </c>
-      <c r="B70" s="78">
+      <c r="B70" s="69">
         <v>59</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D70" t="s">
@@ -2918,10 +2912,10 @@
       <c r="A71" s="24">
         <v>71</v>
       </c>
-      <c r="B71" s="78">
+      <c r="B71" s="69">
         <v>69</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
@@ -2932,10 +2926,10 @@
       <c r="A72" s="24">
         <v>72</v>
       </c>
-      <c r="B72" s="78">
+      <c r="B72" s="69">
         <v>25</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D72" t="s">
@@ -2946,10 +2940,10 @@
       <c r="A73" s="24">
         <v>73</v>
       </c>
-      <c r="B73" s="78">
+      <c r="B73" s="69">
         <v>32</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="70" t="s">
         <v>115</v>
       </c>
       <c r="D73" t="s">
@@ -2960,10 +2954,10 @@
       <c r="A74" s="24">
         <v>74</v>
       </c>
-      <c r="B74" s="78">
+      <c r="B74" s="69">
         <v>25</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="70" t="s">
         <v>116</v>
       </c>
       <c r="D74" t="s">
@@ -2974,10 +2968,10 @@
       <c r="A75" s="24">
         <v>75</v>
       </c>
-      <c r="B75" s="78">
+      <c r="B75" s="69">
         <v>26</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="70" t="s">
         <v>117</v>
       </c>
       <c r="D75" t="s">
@@ -2988,10 +2982,10 @@
       <c r="A76" s="24">
         <v>76</v>
       </c>
-      <c r="B76" s="78">
+      <c r="B76" s="69">
         <v>5</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="70" t="s">
         <v>118</v>
       </c>
       <c r="D76" t="s">

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F9E37-A109-417F-9E4E-7D3151DD03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29ACC93-0157-454C-ABFA-A21D98511BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="2370" yWindow="2235" windowWidth="23610" windowHeight="11385" activeTab="2" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +458,131 @@
   </si>
   <si>
     <t>개발 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 9일</t>
+  </si>
+  <si>
+    <t>5월 10일</t>
+  </si>
+  <si>
+    <t>5월 11일</t>
+  </si>
+  <si>
+    <t>5월 12일</t>
+  </si>
+  <si>
+    <t>5월 13일</t>
+  </si>
+  <si>
+    <t>5월 14일</t>
+  </si>
+  <si>
+    <t>5월 15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 16일</t>
+  </si>
+  <si>
+    <t>5월 17일</t>
+  </si>
+  <si>
+    <t>5월 18일</t>
+  </si>
+  <si>
+    <t>5월 19일</t>
+  </si>
+  <si>
+    <t>5월 20일</t>
+  </si>
+  <si>
+    <t>5월 21일</t>
+  </si>
+  <si>
+    <t>5월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 23일</t>
+  </si>
+  <si>
+    <t>5월 24일</t>
+  </si>
+  <si>
+    <t>5월 25일</t>
+  </si>
+  <si>
+    <t>5월 26일</t>
+  </si>
+  <si>
+    <t>5월 27일</t>
+  </si>
+  <si>
+    <t>5월 28일</t>
+  </si>
+  <si>
+    <t>5월 29일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 30일</t>
+  </si>
+  <si>
+    <t>5월 31일</t>
+  </si>
+  <si>
+    <t>6월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 2일</t>
+  </si>
+  <si>
+    <t>6월 3일</t>
+  </si>
+  <si>
+    <t>6월 4일</t>
+  </si>
+  <si>
+    <t>ex프로젝트 만들고 유튜브 따라서 연습하면서 MyCloset 환경 설정 및 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 ~ 4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 ~ 6월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +627,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -775,13 +916,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1166,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,6 +1201,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,12 +1617,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1438,17 +1648,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="73" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1474,15 +1684,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1508,14 +1718,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1564,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1575,13 +1785,20 @@
     <col min="8" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="H1" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
@@ -1658,12 +1875,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="84"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1716,17 +1933,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="73" t="s">
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="75"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2202,10 +2419,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="73" t="s">
+      <c r="M29" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="75"/>
+      <c r="N29" s="78"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2306,13 +2523,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="78"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2328,13 +2545,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -2399,15 +2616,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="78"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2423,13 +2640,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3017,7 +3234,8 @@
       <c r="C82" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="H38:N38"/>
     <mergeCell ref="H33:N33"/>
     <mergeCell ref="H37:N37"/>
@@ -3031,4 +3249,267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E41FEEA-C1B7-4615-9FA8-94E9C2C65EA6}">
+  <dimension ref="E1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="12" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G1" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+    </row>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="96"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="87"/>
+    </row>
+    <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+    </row>
+    <row r="13" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29ACC93-0157-454C-ABFA-A21D98511BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D4D1A-DB33-40EF-8285-1E1756C7980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2235" windowWidth="23610" windowHeight="11385" activeTab="2" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>5월 ~ 6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스프링 기본 프로젝트 구조 이해
+2. 게시판 기본 틀 구현 (디자인 제외)
+3. Board 데이터 테이블 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,6 +1172,48 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1238,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,50 +1253,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,12 +1632,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1648,17 +1663,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="76" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1684,15 +1699,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1718,14 +1733,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1875,12 +1890,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="87"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="102"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1933,17 +1948,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="76" t="s">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="78"/>
+      <c r="N9" s="92"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2419,10 +2434,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="78"/>
+      <c r="N29" s="92"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2523,13 +2538,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="78"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="92"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2545,13 +2560,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="86"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="101"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -2616,15 +2631,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="76" t="s">
+      <c r="H37" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="78"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="92"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2640,13 +2655,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="86"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="101"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3256,7 +3271,7 @@
   <dimension ref="E1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3298,40 +3313,40 @@
     </row>
     <row r="4" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="88" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="L5" s="78" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="87"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -3364,19 +3379,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="97" t="s">
+    <row r="9" spans="5:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
+      <c r="F9" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -3408,7 +3423,7 @@
       </c>
     </row>
     <row r="12" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F12" s="16"/>
@@ -3449,7 +3464,7 @@
       </c>
     </row>
     <row r="15" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F15" s="73"/>
@@ -3467,46 +3482,45 @@
       <c r="E17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="L17" s="94" t="s">
+      <c r="L17" s="82" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="99"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="100"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:L9"/>
+  <mergeCells count="3">
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="F9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D4D1A-DB33-40EF-8285-1E1756C7980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234D8BE-6A1A-49EA-AC3B-4623AE709F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="215">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +590,173 @@
     <t>1. 스프링 기본 프로젝트 구조 이해
 2. 게시판 기본 틀 구현 (디자인 제외)
 3. Board 데이터 테이블 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;기본 필요&gt;</t>
+  </si>
+  <si>
+    <t>&lt;공지사항&gt;</t>
+  </si>
+  <si>
+    <t>&lt;회원관리&gt;</t>
+  </si>
+  <si>
+    <t>(회원 가입)</t>
+  </si>
+  <si>
+    <t>(회원 리스트)</t>
+  </si>
+  <si>
+    <t>(회원 정보 보기)</t>
+  </si>
+  <si>
+    <t>&lt;fileupload&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image upload&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원가입 처리 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원가입 처리 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원가입 폼 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원가입 폼 2, datapicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> file 여러개 받기 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> file 여러개 받기 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 검색 처리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crud 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기간 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공지 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로그인, 로그 아웃</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ajax를 이용한 실시간 아이디 중복체크</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비밀번호 찾기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이디 중복체크, 비번 유효성 검사</t>
+  </si>
+  <si>
+    <t>데이터 전송과 가입 처리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 리스트 데이터 가져오기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 리스트 데이터 보여주기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 데이터 가져오기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 데이터 보여주기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원 상태 변경하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원 등급 변경하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라이브러리 등록과 설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 적용된 이미지 파일을 보는 jsp 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image list 개발</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image list 완성</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fileUtil 사용하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> write DB처리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정보 수정과 보기의 줄바꿈 처리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이미지 변경</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이미지 업로드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이미지 한 페이지에 몇개 보여줄지 설정</t>
+  </si>
+  <si>
+    <t>유튜브 강의 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 공부 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 소요 시간(분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 소요 시간(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +764,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -643,7 +812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,8 +879,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -922,28 +1097,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,12 +1362,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1415,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,12 +1804,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1663,17 +1835,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="90" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="92"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1699,15 +1871,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1733,14 +1905,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1807,13 +1979,13 @@
       <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
@@ -1890,12 +2062,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="102"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="100"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -1948,17 +2120,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="90" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="92"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2434,10 +2606,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="90" t="s">
+      <c r="M29" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="92"/>
+      <c r="N29" s="90"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2538,13 +2710,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="92"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2560,13 +2732,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="101"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -2631,15 +2803,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="92"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="90"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2655,13 +2827,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="101"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3271,7 +3443,7 @@
   <dimension ref="E1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3280,13 +3452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -3316,8 +3488,8 @@
       <c r="E5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="76" t="s">
         <v>124</v>
       </c>
@@ -3340,13 +3512,13 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="102"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -3383,15 +3555,15 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -3470,9 +3642,15 @@
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="46"/>
+      <c r="I15" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>213</v>
+      </c>
       <c r="L15" s="47"/>
     </row>
     <row r="16" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3509,21 +3687,996 @@
         <v>158</v>
       </c>
       <c r="F18" s="79"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="87"/>
+      <c r="G18" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="G18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="108">
+        <f>SUM(B3)</f>
+        <v>38</v>
+      </c>
+      <c r="C2" s="108">
+        <f>B2*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="D2" s="108">
+        <f>B2+C2</f>
+        <v>95</v>
+      </c>
+      <c r="E2" s="109">
+        <f>D2/60</f>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <f>B3*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>95</v>
+      </c>
+      <c r="E3" s="107">
+        <f>D3/60</f>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="107"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="108">
+        <f>SUM(B6:B9)</f>
+        <v>102</v>
+      </c>
+      <c r="C5" s="108">
+        <f t="shared" ref="C4:C54" si="0">B5*1.5</f>
+        <v>153</v>
+      </c>
+      <c r="D5" s="108">
+        <f t="shared" ref="D4:D54" si="1">B5+C5</f>
+        <v>255</v>
+      </c>
+      <c r="E5" s="109">
+        <f t="shared" ref="E4:E54" si="2">D5/60</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E6" s="107">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E7" s="107">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="107">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="107">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="107"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="108">
+        <f>SUM(B12)+SUM(B23)+SUM(B27)</f>
+        <v>332</v>
+      </c>
+      <c r="C11" s="108">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
+      <c r="D11" s="108">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="E11" s="109">
+        <f t="shared" si="2"/>
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B13:B21)</f>
+        <v>222</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="E12" s="107">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <f>B13*1.5</f>
+        <v>70.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>117.5</v>
+      </c>
+      <c r="E13" s="107">
+        <f t="shared" si="2"/>
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="E14" s="107">
+        <f t="shared" si="2"/>
+        <v>1.2083333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="E15" s="107">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E16" s="107">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="E17" s="107">
+        <f t="shared" si="2"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="E18" s="107">
+        <f t="shared" si="2"/>
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="E19" s="107">
+        <f t="shared" si="2"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <f>B2*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="107">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="E21" s="107">
+        <f t="shared" si="2"/>
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="107"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B24:B25)</f>
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E23" s="107">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="E24" s="107">
+        <f t="shared" si="2"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="E25" s="107">
+        <f t="shared" si="2"/>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B28:B31)</f>
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="E27" s="107">
+        <f t="shared" si="2"/>
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="107">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E29" s="107">
+        <f t="shared" si="2"/>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <f>B3*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E30" s="107">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="107">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="107"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="107"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="108">
+        <f>SUM(B35:B39)</f>
+        <v>41</v>
+      </c>
+      <c r="C34" s="108">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="D34" s="108">
+        <f t="shared" si="1"/>
+        <v>102.5</v>
+      </c>
+      <c r="E34" s="109">
+        <f t="shared" si="2"/>
+        <v>1.7083333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="107">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="E37" s="107">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="E38" s="107">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="E39" s="107">
+        <f t="shared" si="2"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="107"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="107"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="108">
+        <f>SUM(B43:B54)</f>
+        <v>263</v>
+      </c>
+      <c r="C42" s="108">
+        <f t="shared" si="0"/>
+        <v>394.5</v>
+      </c>
+      <c r="D42" s="108">
+        <f t="shared" si="1"/>
+        <v>657.5</v>
+      </c>
+      <c r="E42" s="109">
+        <f t="shared" si="2"/>
+        <v>10.958333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E43" s="107">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="E44" s="107">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="E45" s="107">
+        <f t="shared" si="2"/>
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E46" s="107">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E47" s="107">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E48" s="107">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E49" s="107">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <f>B5*1.5</f>
+        <v>153</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="E50" s="107">
+        <f t="shared" si="2"/>
+        <v>2.9833333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E51" s="107">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E52" s="107">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="E53" s="107">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E54" s="107">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234D8BE-6A1A-49EA-AC3B-4623AE709F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C2C45-7688-42B7-B989-8195F5783F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="소요 시간 정리" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="267">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +758,207 @@
   </si>
   <si>
     <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 6일</t>
+  </si>
+  <si>
+    <t>6월 7일</t>
+  </si>
+  <si>
+    <t>6월 8일</t>
+  </si>
+  <si>
+    <t>6월 9일</t>
+  </si>
+  <si>
+    <t>6월 10일</t>
+  </si>
+  <si>
+    <t>6월 11일</t>
+  </si>
+  <si>
+    <t>6월 12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 13일</t>
+  </si>
+  <si>
+    <t>6월 14일</t>
+  </si>
+  <si>
+    <t>6월 15일</t>
+  </si>
+  <si>
+    <t>6월 16일</t>
+  </si>
+  <si>
+    <t>6월 17일</t>
+  </si>
+  <si>
+    <t>6월 18일</t>
+  </si>
+  <si>
+    <t>6월 19일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 20일</t>
+  </si>
+  <si>
+    <t>6월 21일</t>
+  </si>
+  <si>
+    <t>6월 22일</t>
+  </si>
+  <si>
+    <t>6월 23일</t>
+  </si>
+  <si>
+    <t>6월 24일</t>
+  </si>
+  <si>
+    <t>6월 25일</t>
+  </si>
+  <si>
+    <t>6월 26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 27일</t>
+  </si>
+  <si>
+    <t>6월 28일</t>
+  </si>
+  <si>
+    <t>6월 29일</t>
+  </si>
+  <si>
+    <t>6월 30일</t>
+  </si>
+  <si>
+    <t>7월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 2일</t>
+  </si>
+  <si>
+    <t>회원리스트
+- 데이터 가져오기
+- 데이터 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 보기 -1
+- 데이터 가져오기
+- 데이터 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 보기 -2
+- 회원 상태 변경하기
+- 회원 등급 변경하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드-1
+- 관련 라이브러리 등록 및 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드-2
+- 파일을 받는 jsp 작성
+- file 여러 개 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드-1
+- imageController 개발
+- image list.jsp 개발-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-3
+- fileUtil 사용해보고 대체하기
+- DB에서 write 처리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드-2
+- image list.jsp 개발-2(완성)
+- write 기능 구현(DB제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-4
+- view 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-5
+- update 구현-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-6
+- update 구현-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-7
+- 정보 수정과 보기의 줄바꿈 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-8
+- 이미지 변경 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 4일</t>
+  </si>
+  <si>
+    <t>7월 5일</t>
+  </si>
+  <si>
+    <t>7월 6일</t>
+  </si>
+  <si>
+    <t>7월 7일</t>
+  </si>
+  <si>
+    <t>7월 8일</t>
+  </si>
+  <si>
+    <t>7월 9일</t>
+  </si>
+  <si>
+    <t>이미지업로드-9
+- 이미지 업로드 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지업로드-10
+- 이미지 한 페이지에 몇 개 보여줄지 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월~7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀린 개발을 위한 예비일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +968,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -812,7 +1014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +1084,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,6 +1576,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,23 +1666,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,12 +2060,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -1835,17 +2091,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="88" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="90"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -1871,15 +2127,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -1905,14 +2161,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1979,13 +2235,13 @@
       <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
@@ -2062,12 +2318,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="100"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -2120,17 +2376,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="88" t="s">
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="90"/>
+      <c r="N9" s="104"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2606,10 +2862,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="88" t="s">
+      <c r="M29" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="90"/>
+      <c r="N29" s="104"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -2710,13 +2966,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -2732,13 +2988,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="99"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="113"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -2803,15 +3059,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="88" t="s">
+      <c r="H37" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="104"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -2827,13 +3083,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="99"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="113"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3442,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E41FEEA-C1B7-4615-9FA8-94E9C2C65EA6}">
   <dimension ref="E1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3452,13 +3708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -3512,13 +3768,13 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="100"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -3555,15 +3811,15 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -3687,13 +3943,13 @@
         <v>158</v>
       </c>
       <c r="F18" s="79"/>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
       <c r="L18" s="59"/>
     </row>
   </sheetData>
@@ -3710,16 +3966,352 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2EAD4-1D42-4770-9CBB-BB296F7F53DB}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="41.125" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="29.25" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="92"/>
+      <c r="G1" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="120"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
+    </row>
+    <row r="19" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" s="72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="I21" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="125"/>
+      <c r="L21" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.875" bestFit="1" customWidth="1"/>
@@ -3740,28 +4332,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="108">
+      <c r="B2" s="92">
         <f>SUM(B3)</f>
         <v>38</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="92">
         <f>B2*1.5</f>
         <v>57</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="92">
         <f>B2+C2</f>
         <v>95</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="93">
         <f>D2/60</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="88" t="s">
         <v>176</v>
       </c>
       <c r="B3">
@@ -3775,37 +4367,37 @@
         <f>B3+C3</f>
         <v>95</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="91">
         <f>D3/60</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="107"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="92">
         <f>SUM(B6:B9)</f>
         <v>102</v>
       </c>
-      <c r="C5" s="108">
-        <f t="shared" ref="C4:C54" si="0">B5*1.5</f>
+      <c r="C5" s="92">
+        <f t="shared" ref="C5:C54" si="0">B5*1.5</f>
         <v>153</v>
       </c>
-      <c r="D5" s="108">
-        <f t="shared" ref="D4:D54" si="1">B5+C5</f>
+      <c r="D5" s="92">
+        <f t="shared" ref="D5:D54" si="1">B5+C5</f>
         <v>255</v>
       </c>
-      <c r="E5" s="109">
-        <f t="shared" ref="E4:E54" si="2">D5/60</f>
+      <c r="E5" s="93">
+        <f t="shared" ref="E5:E54" si="2">D5/60</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="88" t="s">
         <v>177</v>
       </c>
       <c r="B6">
@@ -3819,13 +4411,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="91">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="88" t="s">
         <v>178</v>
       </c>
       <c r="B7">
@@ -3839,13 +4431,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="91">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="88" t="s">
         <v>179</v>
       </c>
       <c r="B8">
@@ -3859,13 +4451,13 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="91">
         <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="88" t="s">
         <v>180</v>
       </c>
       <c r="B9">
@@ -3879,37 +4471,37 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="91">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="107"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="92">
         <f>SUM(B12)+SUM(B23)+SUM(B27)</f>
         <v>332</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="92">
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="92">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="93">
         <f t="shared" si="2"/>
         <v>13.833333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="90" t="s">
         <v>165</v>
       </c>
       <c r="B12">
@@ -3924,13 +4516,13 @@
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="91">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="88" t="s">
         <v>181</v>
       </c>
       <c r="B13">
@@ -3944,13 +4536,13 @@
         <f t="shared" si="1"/>
         <v>117.5</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="91">
         <f t="shared" si="2"/>
         <v>1.9583333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="88" t="s">
         <v>170</v>
       </c>
       <c r="B14">
@@ -3964,13 +4556,13 @@
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="91">
         <f t="shared" si="2"/>
         <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="88" t="s">
         <v>171</v>
       </c>
       <c r="B15">
@@ -3984,13 +4576,13 @@
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="91">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="88" t="s">
         <v>172</v>
       </c>
       <c r="B16">
@@ -4004,13 +4596,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="91">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="88" t="s">
         <v>173</v>
       </c>
       <c r="B17">
@@ -4024,13 +4616,13 @@
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="91">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="88" t="s">
         <v>182</v>
       </c>
       <c r="B18">
@@ -4044,13 +4636,13 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="91">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="88" t="s">
         <v>183</v>
       </c>
       <c r="B19">
@@ -4064,13 +4656,13 @@
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="91">
         <f t="shared" si="2"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="88" t="s">
         <v>184</v>
       </c>
       <c r="B20">
@@ -4084,13 +4676,13 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="91">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="88" t="s">
         <v>185</v>
       </c>
       <c r="B21">
@@ -4104,16 +4696,16 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="91">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="107"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="90" t="s">
         <v>166</v>
       </c>
       <c r="B23">
@@ -4128,13 +4720,13 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="91">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="88" t="s">
         <v>186</v>
       </c>
       <c r="B24">
@@ -4148,13 +4740,13 @@
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="E24" s="107">
+      <c r="E24" s="91">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="88" t="s">
         <v>187</v>
       </c>
       <c r="B25">
@@ -4168,19 +4760,19 @@
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="E25" s="107">
+      <c r="E25" s="91">
         <f t="shared" si="2"/>
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="107">
+      <c r="E26" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="90" t="s">
         <v>167</v>
       </c>
       <c r="B27">
@@ -4195,13 +4787,13 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="91">
         <f t="shared" si="2"/>
         <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="88" t="s">
         <v>188</v>
       </c>
       <c r="B28">
@@ -4215,13 +4807,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="91">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="88" t="s">
         <v>189</v>
       </c>
       <c r="B29">
@@ -4235,13 +4827,13 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E29" s="107">
+      <c r="E29" s="91">
         <f t="shared" si="2"/>
         <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="88" t="s">
         <v>190</v>
       </c>
       <c r="B30">
@@ -4255,13 +4847,13 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="91">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="88" t="s">
         <v>191</v>
       </c>
       <c r="B31">
@@ -4275,40 +4867,40 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="91">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="107"/>
+      <c r="E32" s="91"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="107"/>
+      <c r="E33" s="91"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="108">
+      <c r="B34" s="92">
         <f>SUM(B35:B39)</f>
         <v>41</v>
       </c>
-      <c r="C34" s="108">
+      <c r="C34" s="92">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="D34" s="108">
+      <c r="D34" s="92">
         <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
-      <c r="E34" s="109">
+      <c r="E34" s="93">
         <f t="shared" si="2"/>
         <v>1.7083333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="88" t="s">
         <v>192</v>
       </c>
       <c r="B35">
@@ -4322,13 +4914,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E35" s="107">
+      <c r="E35" s="91">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="88" t="s">
         <v>193</v>
       </c>
       <c r="B36">
@@ -4342,13 +4934,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E36" s="107">
+      <c r="E36" s="91">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="88" t="s">
         <v>194</v>
       </c>
       <c r="B37">
@@ -4362,13 +4954,13 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="91">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="88" t="s">
         <v>174</v>
       </c>
       <c r="B38">
@@ -4382,13 +4974,13 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="91">
         <f t="shared" si="2"/>
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="88" t="s">
         <v>175</v>
       </c>
       <c r="B39">
@@ -4402,40 +4994,40 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="E39" s="107">
+      <c r="E39" s="91">
         <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="107"/>
+      <c r="E40" s="91"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="107"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="108">
+      <c r="B42" s="92">
         <f>SUM(B43:B54)</f>
         <v>263</v>
       </c>
-      <c r="C42" s="108">
+      <c r="C42" s="92">
         <f t="shared" si="0"/>
         <v>394.5</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D42" s="92">
         <f t="shared" si="1"/>
         <v>657.5</v>
       </c>
-      <c r="E42" s="109">
+      <c r="E42" s="93">
         <f t="shared" si="2"/>
         <v>10.958333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="88" t="s">
         <v>195</v>
       </c>
       <c r="B43">
@@ -4449,13 +5041,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="91">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="88" t="s">
         <v>196</v>
       </c>
       <c r="B44">
@@ -4469,13 +5061,13 @@
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="E44" s="107">
+      <c r="E44" s="91">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="88" t="s">
         <v>197</v>
       </c>
       <c r="B45">
@@ -4489,13 +5081,13 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E45" s="107">
+      <c r="E45" s="91">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="88" t="s">
         <v>198</v>
       </c>
       <c r="B46">
@@ -4509,13 +5101,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E46" s="107">
+      <c r="E46" s="91">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="88" t="s">
         <v>199</v>
       </c>
       <c r="B47">
@@ -4529,13 +5121,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E47" s="107">
+      <c r="E47" s="91">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="88" t="s">
         <v>200</v>
       </c>
       <c r="B48">
@@ -4549,13 +5141,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E48" s="107">
+      <c r="E48" s="91">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="88" t="s">
         <v>201</v>
       </c>
       <c r="B49">
@@ -4569,13 +5161,13 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E49" s="107">
+      <c r="E49" s="91">
         <f t="shared" si="2"/>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="88" t="s">
         <v>202</v>
       </c>
       <c r="B50">
@@ -4589,13 +5181,13 @@
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="E50" s="107">
+      <c r="E50" s="91">
         <f t="shared" si="2"/>
         <v>2.9833333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="88" t="s">
         <v>203</v>
       </c>
       <c r="B51">
@@ -4609,13 +5201,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E51" s="107">
+      <c r="E51" s="91">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="88" t="s">
         <v>204</v>
       </c>
       <c r="B52">
@@ -4629,13 +5221,13 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E52" s="107">
+      <c r="E52" s="91">
         <f t="shared" si="2"/>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="88" t="s">
         <v>205</v>
       </c>
       <c r="B53">
@@ -4649,13 +5241,13 @@
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="E53" s="107">
+      <c r="E53" s="91">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="88" t="s">
         <v>206</v>
       </c>
       <c r="B54">
@@ -4669,7 +5261,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E54" s="107">
+      <c r="E54" s="91">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C2C45-7688-42B7-B989-8195F5783F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFA160-9F54-4B11-BF32-DFD7EDF378F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="301">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,6 +959,119 @@
   </si>
   <si>
     <t>밀린 개발을 위한 예비일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 11일</t>
+  </si>
+  <si>
+    <t>7월 12일</t>
+  </si>
+  <si>
+    <t>7월 13일</t>
+  </si>
+  <si>
+    <t>7월 14일</t>
+  </si>
+  <si>
+    <t>7월 15일</t>
+  </si>
+  <si>
+    <t>7월 16일</t>
+  </si>
+  <si>
+    <t>7월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 18일</t>
+  </si>
+  <si>
+    <t>7월 19일</t>
+  </si>
+  <si>
+    <t>7월 20일</t>
+  </si>
+  <si>
+    <t>7월 21일</t>
+  </si>
+  <si>
+    <t>7월 22일</t>
+  </si>
+  <si>
+    <t>7월 23일</t>
+  </si>
+  <si>
+    <t>7월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 25일</t>
+  </si>
+  <si>
+    <t>7월 26일</t>
+  </si>
+  <si>
+    <t>7월 27일</t>
+  </si>
+  <si>
+    <t>7월 28일</t>
+  </si>
+  <si>
+    <t>7월 29일</t>
+  </si>
+  <si>
+    <t>7월 30일</t>
+  </si>
+  <si>
+    <t>7월 31일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 2일</t>
+  </si>
+  <si>
+    <t>8월 3일</t>
+  </si>
+  <si>
+    <t>8월 4일</t>
+  </si>
+  <si>
+    <t>8월 5일</t>
+  </si>
+  <si>
+    <t>8월 6일</t>
+  </si>
+  <si>
+    <t>뼈대 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 처리-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 처리-2</t>
+  </si>
+  <si>
+    <t>로그인, 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 리스트(list.jsp) 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 보기(view.jsp) 구현
+밀린 코딩 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1688,6 +1801,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3967,18 +4092,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2EAD4-1D42-4770-9CBB-BB296F7F53DB}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
     <col min="9" max="9" width="41.125" customWidth="1"/>
     <col min="10" max="10" width="24.25" customWidth="1"/>
     <col min="11" max="11" width="29.25" customWidth="1"/>
@@ -4160,7 +4285,7 @@
       <c r="K14" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="52" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4178,16 +4303,16 @@
         <v>245</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="K15" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="L15" s="97" t="s">
-        <v>250</v>
+        <v>297</v>
+      </c>
+      <c r="L15" s="126" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4219,25 +4344,29 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="G18" s="79"/>
       <c r="H18" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="I18" s="98" t="s">
-        <v>252</v>
-      </c>
-      <c r="J18" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+        <v>300</v>
+      </c>
+      <c r="I18" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="19" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4271,29 +4400,198 @@
         <v>158</v>
       </c>
       <c r="F21" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="L21" s="101"/>
+    </row>
+    <row r="22" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="G24" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="H24" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="J21" s="124" t="s">
+      <c r="I24" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="125"/>
-      <c r="L21" s="101"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+    </row>
+    <row r="25" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+    </row>
+    <row r="28" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+    </row>
+    <row r="31" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4305,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFA160-9F54-4B11-BF32-DFD7EDF378F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33E22D-303A-473B-A419-0671B18ACCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="304">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,12 +1066,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 리스트(list.jsp) 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 정보 보기(view.jsp) 구현
 밀린 코딩 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 로그아웃-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 로그아웃-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 리스트(list.jsp) 구현-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 리스트(list.jsp) 구현-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,6 +1743,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1779,6 +1794,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1795,24 +1825,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2185,12 +2197,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -2216,17 +2228,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="102" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="104"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2252,15 +2264,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -2286,14 +2298,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2360,13 +2372,13 @@
       <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
@@ -2443,12 +2455,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="114"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -2501,17 +2513,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="102" t="s">
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="104"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2987,10 +2999,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="104"/>
+      <c r="N29" s="105"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -3091,13 +3103,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="104"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="105"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -3113,13 +3125,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="114"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -3184,15 +3196,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="102" t="s">
+      <c r="H37" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="105"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -3208,13 +3220,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="111"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="113"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="114"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3833,13 +3845,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -3893,13 +3905,13 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="114"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -3936,15 +3948,15 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -4068,13 +4080,13 @@
         <v>158</v>
       </c>
       <c r="F18" s="79"/>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
       <c r="L18" s="59"/>
     </row>
   </sheetData>
@@ -4095,7 +4107,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4112,13 +4124,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="92"/>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4170,11 +4182,11 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="120"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4211,13 +4223,13 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -4311,7 +4323,7 @@
       <c r="K15" s="96" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="102" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4348,25 +4360,19 @@
       <c r="E18" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>299</v>
-      </c>
+      <c r="F18" s="98"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="98"/>
+      <c r="I18" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="I18" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="96" t="s">
-        <v>247</v>
+      <c r="J18" s="102" t="s">
+        <v>301</v>
       </c>
       <c r="K18" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="L18" s="97" t="s">
-        <v>250</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4400,22 +4406,24 @@
         <v>158</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="98"/>
+        <v>302</v>
+      </c>
+      <c r="G21" s="79"/>
       <c r="H21" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="98" t="s">
-        <v>252</v>
-      </c>
-      <c r="J21" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" s="98" t="s">
-        <v>254</v>
-      </c>
-      <c r="L21" s="101"/>
+        <v>299</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="K21" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4448,21 +4456,23 @@
       <c r="E24" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" s="98" t="s">
-        <v>263</v>
-      </c>
+      <c r="F24" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="98"/>
       <c r="H24" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="I24" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="129"/>
+        <v>251</v>
+      </c>
+      <c r="I24" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="101"/>
     </row>
     <row r="25" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="37"/>
@@ -4493,17 +4503,25 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
+      <c r="F27" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
     </row>
     <row r="28" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="37"/>
@@ -4581,14 +4599,14 @@
       <c r="G33" s="99"/>
       <c r="H33" s="98"/>
       <c r="I33" s="98"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="120"/>
       <c r="L33" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="F9:L9"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33E22D-303A-473B-A419-0671B18ACCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC71E82-C1DE-4524-A27B-79382C7D3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -1436,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,15 +1800,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,6 +1816,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4107,7 +4101,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4182,11 +4176,11 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4223,13 +4217,13 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="126"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -4516,12 +4510,12 @@
       <c r="H27" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="121" t="s">
+      <c r="I27" s="119" t="s">
         <v>266</v>
       </c>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="120"/>
     </row>
     <row r="28" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="37"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC71E82-C1DE-4524-A27B-79382C7D3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905C1A1-07E0-46F5-83DC-74F8C36AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="소요 시간 정리" sheetId="4" r:id="rId5"/>
+    <sheet name="3월" sheetId="1" r:id="rId1"/>
+    <sheet name="3-4월" sheetId="2" r:id="rId2"/>
+    <sheet name="5-6월" sheetId="3" r:id="rId3"/>
+    <sheet name="6-7월" sheetId="5" r:id="rId4"/>
+    <sheet name="7-8월" sheetId="6" r:id="rId5"/>
+    <sheet name="소요 시간 정리" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="337">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,6 +1085,120 @@
   </si>
   <si>
     <t>회원 리스트(list.jsp) 구현-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월~8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 8일</t>
+  </si>
+  <si>
+    <t>8월 9일</t>
+  </si>
+  <si>
+    <t>8월 10일</t>
+  </si>
+  <si>
+    <t>8월 11일</t>
+  </si>
+  <si>
+    <t>8월 12일</t>
+  </si>
+  <si>
+    <t>8월 13일</t>
+  </si>
+  <si>
+    <t>8월 14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 15일</t>
+  </si>
+  <si>
+    <t>8월 16일</t>
+  </si>
+  <si>
+    <t>8월 17일</t>
+  </si>
+  <si>
+    <t>8월 18일</t>
+  </si>
+  <si>
+    <t>8월 19일</t>
+  </si>
+  <si>
+    <t>8월 20일</t>
+  </si>
+  <si>
+    <t>8월 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 22일</t>
+  </si>
+  <si>
+    <t>8월 23일</t>
+  </si>
+  <si>
+    <t>8월 24일</t>
+  </si>
+  <si>
+    <t>8월 25일</t>
+  </si>
+  <si>
+    <t>8월 26일</t>
+  </si>
+  <si>
+    <t>8월 27일</t>
+  </si>
+  <si>
+    <t>로그인 세션 또는 쿠키 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비번 찾기 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 옷장 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내옷장 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅룸 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트 스트랩 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1210,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,8 +1253,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,6 +1339,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1906,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,7 +1981,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2191,12 +2393,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -2222,17 +2424,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="103" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2258,15 +2460,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -2292,14 +2494,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2366,13 +2568,13 @@
       <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
@@ -2449,12 +2651,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="115"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
@@ -2507,17 +2709,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="103" t="s">
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="105"/>
+      <c r="N9" s="106"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -2993,10 +3195,10 @@
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="105"/>
+      <c r="N29" s="106"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
@@ -3097,13 +3299,13 @@
       <c r="G33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="105"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="106"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -3119,13 +3321,13 @@
       <c r="G34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="114"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="115"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
@@ -3190,15 +3392,15 @@
       <c r="G37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
@@ -3214,13 +3416,13 @@
       <c r="G38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="114"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="115"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
@@ -3839,13 +4041,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -3899,13 +4101,13 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="115"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -3942,15 +4144,15 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -4074,13 +4276,13 @@
         <v>158</v>
       </c>
       <c r="F18" s="79"/>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="59"/>
     </row>
   </sheetData>
@@ -4100,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2EAD4-1D42-4770-9CBB-BB296F7F53DB}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4118,13 +4320,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="92"/>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4176,11 +4378,11 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4217,13 +4419,13 @@
       <c r="E9" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="37"/>
@@ -4510,12 +4712,12 @@
       <c r="H27" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="119" t="s">
+      <c r="I27" s="128" t="s">
         <v>266</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="120"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
     </row>
     <row r="28" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="37"/>
@@ -4593,14 +4795,13 @@
       <c r="G33" s="99"/>
       <c r="H33" s="98"/>
       <c r="I33" s="98"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="121"/>
       <c r="L33" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="I27:L27"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="F9:L9"/>
@@ -4612,6 +4813,401 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F9D2E6-B680-4670-861D-0722D511F357}">
+  <dimension ref="D2:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
+    <col min="10" max="11" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="F2" s="112" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="131"/>
+      <c r="K8" s="103"/>
+    </row>
+    <row r="9" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="133" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="134" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="134" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="136" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="138" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="J20" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="K20" s="141" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
+    </row>
+    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
   <dimension ref="A1:E54"/>
   <sheetViews>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905C1A1-07E0-46F5-83DC-74F8C36AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538100F-7E31-4769-A1AF-90C5810B0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="345">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,6 +1199,33 @@
   </si>
   <si>
     <t>부트 스트랩 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 29일</t>
+  </si>
+  <si>
+    <t>8월 30일</t>
+  </si>
+  <si>
+    <t>8월 31일</t>
+  </si>
+  <si>
+    <t>9월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 2일</t>
+  </si>
+  <si>
+    <t>9월 3일</t>
+  </si>
+  <si>
+    <t>페이지네이션 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1596,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,6 +1663,261 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,185 +1927,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,194 +1981,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,12 +2396,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="111"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -2424,17 +2427,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="104" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="106"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2460,15 +2463,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -2494,14 +2497,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2562,33 +2565,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="20">
         <v>2</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="45">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="21">
         <v>3</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="44">
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2614,55 +2617,55 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>4</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="44">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+      <c r="A5" s="21">
         <v>5</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="44">
         <v>19</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>6</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="44">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="116"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="110"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>7</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="44">
         <v>13</v>
       </c>
       <c r="H7" s="1"/>
@@ -2670,109 +2673,109 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>8</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="44">
         <v>24</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>9</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="44">
         <v>19</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="107" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="104" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="106"/>
+      <c r="N9" s="100"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>10</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="44">
         <v>6</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24">
+      <c r="A11" s="21">
         <v>11</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="44">
         <v>16</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>12</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="44">
         <v>23</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="5" t="s">
         <v>43</v>
       </c>
@@ -2793,90 +2796,90 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24">
+      <c r="A13" s="21">
         <v>13</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="44">
         <v>24</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33">
+      <c r="H13" s="28"/>
+      <c r="I13" s="29">
         <f>SUM(B2:B4)</f>
         <v>69</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="29">
         <f>SUM(B5:B7)</f>
         <v>58</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="29">
         <f>SUM(B8:B10)</f>
         <v>49</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="29">
         <f>SUM(B11:B13)</f>
         <v>63</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="29">
         <f>SUM(B14:B15)</f>
         <v>52</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="30">
         <f>SUM(B16:B19)</f>
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>14</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="44">
         <v>14</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24">
+      <c r="A15" s="21">
         <v>15</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="44">
         <v>38</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="41" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>16</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="44">
         <v>26</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="34" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2894,962 +2897,962 @@
       <c r="L16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24">
+      <c r="A17" s="21">
         <v>17</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="44">
         <v>26</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <f>SUM(B20:B22)</f>
         <v>69</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="29">
         <f>SUM(B23)</f>
         <v>47</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="29">
         <f>SUM(B24:B26)</f>
         <v>62</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="29">
         <f>SUM(B27:B28)</f>
         <v>40</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="29">
         <f>SUM(B29:B31)</f>
         <v>73</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="28">
         <f>SUM(B32:B33)</f>
         <v>48</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="30">
         <f>SUM(B34:B36)</f>
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>18</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="44">
         <v>44</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>19</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="44">
         <v>5</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="41" t="s">
         <v>36</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>20</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="44">
         <v>16</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
+      <c r="A21" s="21">
         <v>21</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="44">
         <v>27</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="25">
         <f>SUM(B37:B41)</f>
         <v>86</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="27">
         <f>SUM(B42:B44)</f>
         <v>58</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="27">
         <f>SUM(B45:B47)</f>
         <v>50</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="27">
         <f>SUM(B48:B49)</f>
         <v>64</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>22</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="44">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="66">
+      <c r="A23" s="59">
         <v>23</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="60">
         <v>47</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>24</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="44">
         <v>29</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="61">
         <v>44683</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="M24" s="63" t="s">
+      <c r="D24" s="45"/>
+      <c r="M24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24">
+      <c r="A25" s="21">
         <v>25</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="44">
         <v>15</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="58">
         <v>44684</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="13" t="s">
+      <c r="D25" s="44"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>26</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="44">
         <v>18</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="58">
         <v>44685</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="44"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="32">
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="28">
         <f>SUM(B50:B51)</f>
         <v>62</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="30">
         <f>SUM(B52:B54)</f>
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24">
+      <c r="A27" s="21">
         <v>27</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="44">
         <v>23</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="58">
         <v>44686</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="44"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>28</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="44">
         <v>17</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="58">
         <v>44687</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="G28" s="35" t="s">
+      <c r="D28" s="44"/>
+      <c r="G28" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="40" t="s">
+      <c r="L28" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24">
+      <c r="A29" s="21">
         <v>29</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="44">
         <v>33</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="58">
         <v>44688</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="G29" s="38" t="s">
+      <c r="D29" s="44"/>
+      <c r="G29" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="104" t="s">
+      <c r="M29" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="106"/>
+      <c r="N29" s="100"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>30</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="44">
         <v>23</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="58">
         <v>44689</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="G30" s="39" t="s">
+      <c r="D30" s="44"/>
+      <c r="G30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <f>SUM(B55:B58)</f>
         <v>77</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="25">
         <f>SUM(B59:B60)</f>
         <v>71</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="25">
         <f>SUM(B61:B62)</f>
         <v>50</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="25">
         <f>SUM(B63:B64)</f>
         <v>55</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="57">
         <f>SUM(B65:B66)</f>
         <v>90</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24">
+      <c r="A31" s="21">
         <v>31</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="44">
         <v>17</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="58">
         <v>44690</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>32</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="44">
         <v>23</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="58">
         <v>44691</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="G32" s="35" t="s">
+      <c r="D32" s="44"/>
+      <c r="G32" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="43" t="s">
+      <c r="M32" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="72" t="s">
+      <c r="N32" s="65" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <v>33</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="44">
         <v>25</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="58">
         <v>44692</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="G33" s="38" t="s">
+      <c r="D33" s="44"/>
+      <c r="G33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="106"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="100"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24">
+      <c r="A34" s="21">
         <v>34</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="44">
         <v>20</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="58">
         <v>44693</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="G34" s="39" t="s">
+      <c r="D34" s="44"/>
+      <c r="G34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="115"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="109"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24">
+      <c r="A35" s="21">
         <v>35</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="44">
         <v>34</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="58">
         <v>44694</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="G35" s="37"/>
+      <c r="D35" s="44"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24">
+      <c r="A36" s="21">
         <v>36</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="44">
         <v>24</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="58">
         <v>44695</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="G36" s="35" t="s">
+      <c r="D36" s="44"/>
+      <c r="G36" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="43" t="s">
+      <c r="M36" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24">
+      <c r="A37" s="21">
         <v>37</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="44">
         <v>20</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="58">
         <v>44696</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="G37" s="38" t="s">
+      <c r="D37" s="44"/>
+      <c r="G37" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="104" t="s">
+      <c r="H37" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="106"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="100"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24">
+      <c r="A38" s="21">
         <v>38</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="44">
         <v>18</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="58">
         <v>44713</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="G38" s="39" t="s">
+      <c r="D38" s="44"/>
+      <c r="G38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="115"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="109"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24">
+      <c r="A39" s="21">
         <v>39</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="44">
         <v>40</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="58">
         <v>44714</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="G39" s="37"/>
+      <c r="D39" s="44"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24">
+      <c r="A40" s="21">
         <v>40</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="44">
         <v>3</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="58">
         <v>44715</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="G40" s="35" t="s">
+      <c r="D40" s="44"/>
+      <c r="G40" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="L40" s="43" t="s">
+      <c r="L40" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="M40" s="43" t="s">
+      <c r="M40" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="52" t="s">
+      <c r="N40" s="46" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24">
+      <c r="A41" s="21">
         <v>41</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="44">
         <v>5</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="58">
         <v>44716</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="G41" s="38" t="s">
+      <c r="D41" s="44"/>
+      <c r="G41" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24">
+      <c r="A42" s="21">
         <v>42</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="44">
         <v>20</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="58">
         <v>44717</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="G42" s="39" t="s">
+      <c r="D42" s="44"/>
+      <c r="G42" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="26"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24">
+      <c r="A43" s="21">
         <v>43</v>
       </c>
-      <c r="B43" s="48">
+      <c r="B43" s="44">
         <v>21</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="58">
         <v>44718</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="A44" s="21">
         <v>44</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="44">
         <v>17</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="58">
         <v>44719</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
+      <c r="A45" s="21">
         <v>45</v>
       </c>
-      <c r="B45" s="48">
+      <c r="B45" s="44">
         <v>26</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="58">
         <v>44720</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
+      <c r="A46" s="21">
         <v>46</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="44">
         <v>16</v>
       </c>
-      <c r="C46" s="65">
+      <c r="C46" s="58">
         <v>44721</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <v>67</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="44">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
+      <c r="A47" s="21">
         <v>47</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="44">
         <v>8</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C47" s="58">
         <v>44722</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="21">
         <v>68</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="44">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="21">
         <v>48</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="44">
         <v>38</v>
       </c>
-      <c r="C48" s="65">
+      <c r="C48" s="58">
         <v>44723</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="21">
         <v>69</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="44">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24">
+      <c r="A49" s="21">
         <v>49</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49" s="44">
         <v>26</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="58">
         <v>44724</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="22">
         <v>70</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="44">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
+      <c r="A50" s="21">
         <v>50</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50" s="44">
         <v>24</v>
       </c>
-      <c r="C50" s="65">
+      <c r="C50" s="58">
         <v>44725</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="21">
         <v>71</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="44">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="A51" s="21">
         <v>51</v>
       </c>
-      <c r="B51" s="50">
+      <c r="B51" s="44">
         <v>38</v>
       </c>
-      <c r="C51" s="65">
+      <c r="C51" s="58">
         <v>44726</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="21">
         <v>72</v>
       </c>
-      <c r="F51" s="50">
+      <c r="F51" s="44">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
+      <c r="A52" s="21">
         <v>52</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52" s="44">
         <v>21</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="58">
         <v>44727</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="21">
         <v>73</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="44">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
+      <c r="A53" s="21">
         <v>53</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="44">
         <v>26</v>
       </c>
-      <c r="C53" s="65">
+      <c r="C53" s="58">
         <v>44728</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="21">
         <v>74</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="44">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
+      <c r="A54" s="21">
         <v>54</v>
       </c>
-      <c r="B54" s="50">
+      <c r="B54" s="44">
         <v>22</v>
       </c>
-      <c r="C54" s="65">
+      <c r="C54" s="58">
         <v>44743</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="21">
         <v>75</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="44">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
+      <c r="A55" s="21">
         <v>55</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="44">
         <v>13</v>
       </c>
-      <c r="C55" s="65">
+      <c r="C55" s="58">
         <v>44744</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="21">
         <v>76</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
+      <c r="A56" s="21">
         <v>56</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="44">
         <v>27</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="58">
         <v>44745</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="24">
+      <c r="A57" s="21">
         <v>57</v>
       </c>
-      <c r="B57" s="50">
+      <c r="B57" s="44">
         <v>19</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="58">
         <v>44746</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
+      <c r="A58" s="21">
         <v>58</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B58" s="44">
         <v>18</v>
       </c>
-      <c r="C58" s="65">
+      <c r="C58" s="58">
         <v>44774</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
+      <c r="A59" s="21">
         <v>59</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <v>25</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="58">
         <v>44775</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="24">
+      <c r="A60" s="21">
         <v>60</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="44">
         <v>46</v>
       </c>
-      <c r="C60" s="65">
+      <c r="C60" s="58">
         <v>44776</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
+      <c r="A61" s="21">
         <v>61</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61" s="44">
         <v>29</v>
       </c>
-      <c r="C61" s="65">
+      <c r="C61" s="58">
         <v>44777</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24">
+      <c r="A62" s="21">
         <v>62</v>
       </c>
-      <c r="B62" s="50">
+      <c r="B62" s="44">
         <v>21</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="58">
         <v>44778</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
+      <c r="A63" s="21">
         <v>63</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="44">
         <v>26</v>
       </c>
-      <c r="C63" s="65">
+      <c r="C63" s="58">
         <v>44779</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="A64" s="21">
         <v>64</v>
       </c>
-      <c r="B64" s="50">
+      <c r="B64" s="44">
         <v>29</v>
       </c>
-      <c r="C64" s="65">
+      <c r="C64" s="58">
         <v>44805</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
+      <c r="A65" s="21">
         <v>65</v>
       </c>
-      <c r="B65" s="69">
+      <c r="B65" s="62">
         <v>59</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="63" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="25">
+      <c r="A66" s="22">
         <v>66</v>
       </c>
-      <c r="B66" s="71">
+      <c r="B66" s="64">
         <v>31</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24">
+      <c r="A67" s="21">
         <v>67</v>
       </c>
-      <c r="B67" s="69">
+      <c r="B67" s="62">
         <v>42</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="63" t="s">
         <v>102</v>
       </c>
       <c r="D67" t="s">
@@ -3857,13 +3860,13 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24">
+      <c r="A68" s="21">
         <v>68</v>
       </c>
-      <c r="B68" s="69">
+      <c r="B68" s="62">
         <v>21</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="63" t="s">
         <v>103</v>
       </c>
       <c r="D68" t="s">
@@ -3871,13 +3874,13 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
+      <c r="A69" s="21">
         <v>69</v>
       </c>
-      <c r="B69" s="69">
+      <c r="B69" s="62">
         <v>32</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="63" t="s">
         <v>104</v>
       </c>
       <c r="D69" t="s">
@@ -3885,13 +3888,13 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="25">
+      <c r="A70" s="22">
         <v>70</v>
       </c>
-      <c r="B70" s="69">
+      <c r="B70" s="62">
         <v>59</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="63" t="s">
         <v>105</v>
       </c>
       <c r="D70" t="s">
@@ -3902,13 +3905,13 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="24">
+      <c r="A71" s="21">
         <v>71</v>
       </c>
-      <c r="B71" s="69">
+      <c r="B71" s="62">
         <v>69</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="63" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
@@ -3916,13 +3919,13 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="24">
+      <c r="A72" s="21">
         <v>72</v>
       </c>
-      <c r="B72" s="69">
+      <c r="B72" s="62">
         <v>25</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="63" t="s">
         <v>107</v>
       </c>
       <c r="D72" t="s">
@@ -3930,13 +3933,13 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="24">
+      <c r="A73" s="21">
         <v>73</v>
       </c>
-      <c r="B73" s="69">
+      <c r="B73" s="62">
         <v>32</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="63" t="s">
         <v>115</v>
       </c>
       <c r="D73" t="s">
@@ -3944,13 +3947,13 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
+      <c r="A74" s="21">
         <v>74</v>
       </c>
-      <c r="B74" s="69">
+      <c r="B74" s="62">
         <v>25</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="63" t="s">
         <v>116</v>
       </c>
       <c r="D74" t="s">
@@ -3958,13 +3961,13 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
+      <c r="A75" s="21">
         <v>75</v>
       </c>
-      <c r="B75" s="69">
+      <c r="B75" s="62">
         <v>26</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="63" t="s">
         <v>117</v>
       </c>
       <c r="D75" t="s">
@@ -3972,13 +3975,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="24">
+      <c r="A76" s="21">
         <v>76</v>
       </c>
-      <c r="B76" s="69">
+      <c r="B76" s="62">
         <v>5</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="63" t="s">
         <v>118</v>
       </c>
       <c r="D76" t="s">
@@ -3987,27 +3990,27 @@
     </row>
     <row r="80" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="19">
         <f>SUM(B2:B76)</f>
         <v>1877</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="15">
         <f>B81/60</f>
         <v>31.283333333333335</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="17">
         <f>B81/47</f>
         <v>39.936170212765958</v>
       </c>
-      <c r="C82" s="21"/>
+      <c r="C82" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4041,13 +4044,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4074,40 +4077,40 @@
     </row>
     <row r="4" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="76" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="116"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4115,175 +4118,175 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="36" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="5:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="37"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="39" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="37"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="39" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="37"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="81" t="s">
+      <c r="J17" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="L17" s="82" t="s">
+      <c r="L17" s="70" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="59"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4319,14 +4322,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="92"/>
-      <c r="G1" s="112" t="s">
+      <c r="A1" s="55"/>
+      <c r="G1" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4353,36 +4356,36 @@
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="47" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4390,414 +4393,414 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="36" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="127"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="37"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="39" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="60"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="37"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="L14" s="52" t="s">
+      <c r="L14" s="46" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="96" t="s">
+      <c r="K15" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="86" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="37"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="72" t="s">
+      <c r="L17" s="65" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="102" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="97"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="J20" s="80" t="s">
+      <c r="J20" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="L20" s="72" t="s">
+      <c r="L20" s="65" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="21" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="98" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="96" t="s">
+      <c r="J21" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="K21" s="96" t="s">
+      <c r="K21" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="81" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="39" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98" t="s">
+      <c r="G24" s="82"/>
+      <c r="H24" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="I24" s="98" t="s">
+      <c r="I24" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="L24" s="101"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="37"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="L26" s="43" t="s">
+      <c r="L26" s="39" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="5:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="98" t="s">
+      <c r="H27" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="I27" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
     </row>
     <row r="28" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="37"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="H29" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="J29" s="80" t="s">
+      <c r="J29" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="L29" s="80" t="s">
+      <c r="L29" s="68" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="30" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="5:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K32" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="L32" s="80" t="s">
+      <c r="L32" s="68" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="98"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="101"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4814,10 +4817,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F9D2E6-B680-4670-861D-0722D511F357}">
-  <dimension ref="D2:K26"/>
+  <dimension ref="D2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4829,13 +4832,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -4861,349 +4864,389 @@
       </c>
     </row>
     <row r="6" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="37"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="39" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="I8" s="132" t="s">
+      <c r="I8" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="103"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="9" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="37"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="80" t="s">
+      <c r="J10" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="68" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="133" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="86" t="s">
         <v>329</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="86" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="134" t="s">
+      <c r="J11" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="K11" s="134" t="s">
+      <c r="K11" s="94" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="K13" s="80" t="s">
+      <c r="K13" s="39" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="F14" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="I14" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="J14" s="136" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="136" t="s">
-        <v>332</v>
-      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="39" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="I20" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="J20" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="F23" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G23" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H23" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="J23" s="126" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="138" t="s">
+      <c r="K23" s="127" t="s">
         <v>333</v>
       </c>
-      <c r="J17" s="138" t="s">
-        <v>333</v>
-      </c>
-      <c r="K17" s="138" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="37"/>
-    </row>
-    <row r="19" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="139" t="s">
-        <v>334</v>
-      </c>
-      <c r="F20" s="139" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="139" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="141" t="s">
-        <v>335</v>
-      </c>
-      <c r="I20" s="141" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20" s="141" t="s">
-        <v>335</v>
-      </c>
-      <c r="K20" s="141" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="H22" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="I22" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="J22" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="K22" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="140" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" s="140" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
     </row>
     <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="J25" s="80" t="s">
+      <c r="J25" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="80" t="s">
+      <c r="K25" s="68" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="26" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="101"/>
+      <c r="E26" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="129" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="K28" s="68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5217,7 +5260,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.875" bestFit="1" customWidth="1"/>
@@ -5238,28 +5281,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="55">
         <f>SUM(B3)</f>
         <v>38</v>
       </c>
-      <c r="C2" s="92">
+      <c r="C2" s="55">
         <f>B2*1.5</f>
         <v>57</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="55">
         <f>B2+C2</f>
         <v>95</v>
       </c>
-      <c r="E2" s="93">
+      <c r="E2" s="78">
         <f>D2/60</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3">
@@ -5273,37 +5316,37 @@
         <f>B3+C3</f>
         <v>95</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="77">
         <f>D3/60</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="91"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="55">
         <f>SUM(B6:B9)</f>
         <v>102</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="55">
         <f t="shared" ref="C5:C54" si="0">B5*1.5</f>
         <v>153</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="55">
         <f t="shared" ref="D5:D54" si="1">B5+C5</f>
         <v>255</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="78">
         <f t="shared" ref="E5:E54" si="2">D5/60</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" t="s">
         <v>177</v>
       </c>
       <c r="B6">
@@ -5317,13 +5360,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="77">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" t="s">
         <v>178</v>
       </c>
       <c r="B7">
@@ -5337,13 +5380,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="77">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" t="s">
         <v>179</v>
       </c>
       <c r="B8">
@@ -5357,13 +5400,13 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="77">
         <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" t="s">
         <v>180</v>
       </c>
       <c r="B9">
@@ -5377,37 +5420,37 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="77">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="91"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="55">
         <f>SUM(B12)+SUM(B23)+SUM(B27)</f>
         <v>332</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="55">
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="55">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="78">
         <f t="shared" si="2"/>
         <v>13.833333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="76" t="s">
         <v>165</v>
       </c>
       <c r="B12">
@@ -5422,13 +5465,13 @@
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="77">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" t="s">
         <v>181</v>
       </c>
       <c r="B13">
@@ -5442,13 +5485,13 @@
         <f t="shared" si="1"/>
         <v>117.5</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="77">
         <f t="shared" si="2"/>
         <v>1.9583333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+      <c r="A14" t="s">
         <v>170</v>
       </c>
       <c r="B14">
@@ -5462,13 +5505,13 @@
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="77">
         <f t="shared" si="2"/>
         <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" t="s">
         <v>171</v>
       </c>
       <c r="B15">
@@ -5482,13 +5525,13 @@
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="77">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="88" t="s">
+      <c r="A16" t="s">
         <v>172</v>
       </c>
       <c r="B16">
@@ -5502,13 +5545,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="77">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
+      <c r="A17" t="s">
         <v>173</v>
       </c>
       <c r="B17">
@@ -5522,13 +5565,13 @@
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="77">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+      <c r="A18" t="s">
         <v>182</v>
       </c>
       <c r="B18">
@@ -5542,13 +5585,13 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="77">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" t="s">
         <v>183</v>
       </c>
       <c r="B19">
@@ -5562,13 +5605,13 @@
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="77">
         <f t="shared" si="2"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="A20" t="s">
         <v>184</v>
       </c>
       <c r="B20">
@@ -5582,13 +5625,13 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="77">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" t="s">
         <v>185</v>
       </c>
       <c r="B21">
@@ -5602,16 +5645,16 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="77">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="91"/>
+      <c r="E22" s="77"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="76" t="s">
         <v>166</v>
       </c>
       <c r="B23">
@@ -5626,13 +5669,13 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="77">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" t="s">
         <v>186</v>
       </c>
       <c r="B24">
@@ -5646,13 +5689,13 @@
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="77">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
+      <c r="A25" t="s">
         <v>187</v>
       </c>
       <c r="B25">
@@ -5666,19 +5709,19 @@
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="77">
         <f t="shared" si="2"/>
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="91">
+      <c r="E26" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="76" t="s">
         <v>167</v>
       </c>
       <c r="B27">
@@ -5693,13 +5736,13 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="77">
         <f t="shared" si="2"/>
         <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" t="s">
         <v>188</v>
       </c>
       <c r="B28">
@@ -5713,13 +5756,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="77">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" t="s">
         <v>189</v>
       </c>
       <c r="B29">
@@ -5733,13 +5776,13 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="77">
         <f t="shared" si="2"/>
         <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" t="s">
         <v>190</v>
       </c>
       <c r="B30">
@@ -5753,13 +5796,13 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="E30" s="91">
+      <c r="E30" s="77">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
+      <c r="A31" t="s">
         <v>191</v>
       </c>
       <c r="B31">
@@ -5773,40 +5816,40 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="77">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="91"/>
+      <c r="E32" s="77"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="91"/>
+      <c r="E33" s="77"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="92">
+      <c r="B34" s="55">
         <f>SUM(B35:B39)</f>
         <v>41</v>
       </c>
-      <c r="C34" s="92">
+      <c r="C34" s="55">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="55">
         <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
-      <c r="E34" s="93">
+      <c r="E34" s="78">
         <f t="shared" si="2"/>
         <v>1.7083333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="88" t="s">
+      <c r="A35" t="s">
         <v>192</v>
       </c>
       <c r="B35">
@@ -5820,13 +5863,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E35" s="91">
+      <c r="E35" s="77">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" t="s">
         <v>193</v>
       </c>
       <c r="B36">
@@ -5840,13 +5883,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E36" s="91">
+      <c r="E36" s="77">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" t="s">
         <v>194</v>
       </c>
       <c r="B37">
@@ -5860,13 +5903,13 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="E37" s="91">
+      <c r="E37" s="77">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
+      <c r="A38" t="s">
         <v>174</v>
       </c>
       <c r="B38">
@@ -5880,13 +5923,13 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="E38" s="91">
+      <c r="E38" s="77">
         <f t="shared" si="2"/>
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+      <c r="A39" t="s">
         <v>175</v>
       </c>
       <c r="B39">
@@ -5900,40 +5943,40 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="E39" s="91">
+      <c r="E39" s="77">
         <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="91"/>
+      <c r="E40" s="77"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="91"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="92">
+      <c r="B42" s="55">
         <f>SUM(B43:B54)</f>
         <v>263</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="55">
         <f t="shared" si="0"/>
         <v>394.5</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="55">
         <f t="shared" si="1"/>
         <v>657.5</v>
       </c>
-      <c r="E42" s="93">
+      <c r="E42" s="78">
         <f t="shared" si="2"/>
         <v>10.958333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="88" t="s">
+      <c r="A43" t="s">
         <v>195</v>
       </c>
       <c r="B43">
@@ -5947,13 +5990,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E43" s="91">
+      <c r="E43" s="77">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="88" t="s">
+      <c r="A44" t="s">
         <v>196</v>
       </c>
       <c r="B44">
@@ -5967,13 +6010,13 @@
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="77">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
+      <c r="A45" t="s">
         <v>197</v>
       </c>
       <c r="B45">
@@ -5987,13 +6030,13 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="77">
         <f t="shared" si="2"/>
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="88" t="s">
+      <c r="A46" t="s">
         <v>198</v>
       </c>
       <c r="B46">
@@ -6007,13 +6050,13 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E46" s="91">
+      <c r="E46" s="77">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="88" t="s">
+      <c r="A47" t="s">
         <v>199</v>
       </c>
       <c r="B47">
@@ -6027,13 +6070,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E47" s="91">
+      <c r="E47" s="77">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="88" t="s">
+      <c r="A48" t="s">
         <v>200</v>
       </c>
       <c r="B48">
@@ -6047,13 +6090,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E48" s="91">
+      <c r="E48" s="77">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="88" t="s">
+      <c r="A49" t="s">
         <v>201</v>
       </c>
       <c r="B49">
@@ -6067,13 +6110,13 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E49" s="91">
+      <c r="E49" s="77">
         <f t="shared" si="2"/>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="88" t="s">
+      <c r="A50" t="s">
         <v>202</v>
       </c>
       <c r="B50">
@@ -6087,13 +6130,13 @@
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="E50" s="91">
+      <c r="E50" s="77">
         <f t="shared" si="2"/>
         <v>2.9833333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="88" t="s">
+      <c r="A51" t="s">
         <v>203</v>
       </c>
       <c r="B51">
@@ -6107,13 +6150,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E51" s="91">
+      <c r="E51" s="77">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="88" t="s">
+      <c r="A52" t="s">
         <v>204</v>
       </c>
       <c r="B52">
@@ -6127,13 +6170,13 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E52" s="91">
+      <c r="E52" s="77">
         <f t="shared" si="2"/>
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="88" t="s">
+      <c r="A53" t="s">
         <v>205</v>
       </c>
       <c r="B53">
@@ -6147,13 +6190,13 @@
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="E53" s="91">
+      <c r="E53" s="77">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="88" t="s">
+      <c r="A54" t="s">
         <v>206</v>
       </c>
       <c r="B54">
@@ -6167,7 +6210,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E54" s="91">
+      <c r="E54" s="77">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538100F-7E31-4769-A1AF-90C5810B0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C3BAE-E43A-4A6D-B442-CECC974E4065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="5-6월" sheetId="3" r:id="rId3"/>
     <sheet name="6-7월" sheetId="5" r:id="rId4"/>
     <sheet name="7-8월" sheetId="6" r:id="rId5"/>
-    <sheet name="소요 시간 정리" sheetId="4" r:id="rId6"/>
+    <sheet name="9월" sheetId="8" r:id="rId6"/>
+    <sheet name="소요 시간 정리" sheetId="4" r:id="rId7"/>
+    <sheet name="WBS" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="465">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,6 +1228,460 @@
   </si>
   <si>
     <t>페이지네이션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 기능 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 테이블 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 페이지(home) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 페이지 (member)개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/ 비밀번호 찾기 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 보기(view) 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정(update) 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 옷장(closet) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 등록(enroll) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 수정(update) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 리스트(list) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 세부보기(view) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅룸(myFitting) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅 등록(enroll) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅 수정(update) 페이지 개발</t>
+  </si>
+  <si>
+    <t>피팅 리스트(list) 페이지 개발</t>
+  </si>
+  <si>
+    <t>공지사항(notice) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 리스트(list) 페이지 개발</t>
+  </si>
+  <si>
+    <t>공지사항 등록(enroll) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정(update) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 세부보기(view) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리(member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 리스트(list) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보수정(update) 페이지 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항(notice)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.06.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.06.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.06.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 네이션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.05.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.02.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.02.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.02.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.02.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.04.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 5일</t>
+  </si>
+  <si>
+    <t>9월 6일</t>
+  </si>
+  <si>
+    <t>9월 7일</t>
+  </si>
+  <si>
+    <t>9월 8일</t>
+  </si>
+  <si>
+    <t>9월 9일</t>
+  </si>
+  <si>
+    <t>9월 10일</t>
+  </si>
+  <si>
+    <t>9월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 12일</t>
+  </si>
+  <si>
+    <t>9월 13일</t>
+  </si>
+  <si>
+    <t>9월 14일</t>
+  </si>
+  <si>
+    <t>9월 15일</t>
+  </si>
+  <si>
+    <t>9월 16일</t>
+  </si>
+  <si>
+    <t>9월 17일</t>
+  </si>
+  <si>
+    <t>9월 18일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 19일</t>
+  </si>
+  <si>
+    <t>9월 20일</t>
+  </si>
+  <si>
+    <t>9월 21일</t>
+  </si>
+  <si>
+    <t>9월 22일</t>
+  </si>
+  <si>
+    <t>9월 23일</t>
+  </si>
+  <si>
+    <t>9월 24일</t>
+  </si>
+  <si>
+    <t>9월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 26일</t>
+  </si>
+  <si>
+    <t>9월 27일</t>
+  </si>
+  <si>
+    <t>9월 28일</t>
+  </si>
+  <si>
+    <t>9월 29일</t>
+  </si>
+  <si>
+    <t>9월 30일</t>
+  </si>
+  <si>
+    <t>22.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 회원관리 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 공지사항 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.09.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,8 +1861,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1617,13 +2091,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,6 +2495,27 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,41 +2588,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,12 +3060,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -2427,17 +3091,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="98" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="100"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2463,15 +3127,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -2497,14 +3161,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2553,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6E7956-3DA5-4FB7-BA0F-88DB2F37B3BC}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
@@ -2571,13 +3235,13 @@
       <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
@@ -2654,12 +3318,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="110"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
@@ -2712,17 +3376,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="H9" s="101" t="s">
+      <c r="H9" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="98" t="s">
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="100"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
@@ -3198,10 +3862,10 @@
       <c r="L29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="100"/>
+      <c r="N29" s="107"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
@@ -3302,13 +3966,13 @@
       <c r="G33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="100"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="107"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
@@ -3324,13 +3988,13 @@
       <c r="G34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="109"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21">
@@ -3395,15 +4059,15 @@
       <c r="G37" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="100"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="107"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
@@ -3419,13 +4083,13 @@
       <c r="G38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="107"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="109"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
@@ -4044,13 +4708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4104,13 +4768,13 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="110"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4147,15 +4811,15 @@
       <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="33"/>
@@ -4279,13 +4943,13 @@
         <v>158</v>
       </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
       <c r="L18" s="53"/>
     </row>
   </sheetData>
@@ -4306,7 +4970,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L33"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4323,13 +4987,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="113" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4381,11 +5045,11 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4422,13 +5086,13 @@
       <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="33"/>
@@ -4798,8 +5462,8 @@
       <c r="G33" s="83"/>
       <c r="H33" s="82"/>
       <c r="I33" s="82"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="115"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="122"/>
       <c r="L33" s="85"/>
     </row>
   </sheetData>
@@ -4817,10 +5481,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F9D2E6-B680-4670-861D-0722D511F357}">
-  <dimension ref="D2:K29"/>
+  <dimension ref="D2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4832,13 +5496,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -5021,7 +5685,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="73" t="s">
         <v>158</v>
       </c>
@@ -5033,10 +5697,10 @@
       <c r="J17" s="50"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="31" t="s">
         <v>54</v>
       </c>
@@ -5062,42 +5726,32 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="I20" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="J20" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="K20" s="123" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+    </row>
+    <row r="21" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="39" t="s">
         <v>315</v>
       </c>
       <c r="H22" s="68" t="s">
@@ -5113,34 +5767,28 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="73" t="s">
+    <row r="23" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="124" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="H23" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="I23" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="J23" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="K23" s="127" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="K23" s="98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="31" t="s">
         <v>54</v>
       </c>
@@ -5159,41 +5807,32 @@
       <c r="I25" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="39" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="F26" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="I26" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="J26" s="97" t="s">
-        <v>335</v>
-      </c>
-      <c r="K26" s="129" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="129" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+    </row>
+    <row r="27" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="31" t="s">
         <v>54</v>
       </c>
@@ -5219,30 +5858,74 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="H29" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="J29" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="J34" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="K34" s="104" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F36" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="G29" s="96" t="s">
+      <c r="G36" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H36" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E26:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5251,6 +5934,347 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23421779-3E65-46D6-A9C1-45DC4B8D6784}">
+  <dimension ref="G1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="10" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="I1" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+    </row>
+    <row r="3" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" s="157" t="s">
+        <v>457</v>
+      </c>
+      <c r="N7" s="158"/>
+    </row>
+    <row r="8" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="I10" s="159" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="N10" s="104" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="M13" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="N13" s="96" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="154" t="s">
+        <v>356</v>
+      </c>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="138"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G19" s="141"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G20" s="141"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+    </row>
+    <row r="21" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G22" s="141"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+    </row>
+    <row r="24" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="141"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H16:M16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -6220,4 +7244,1802 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2049C0E-0B3A-41CB-95CB-257CB110AC6A}">
+  <dimension ref="A1:AM35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="147" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="134" t="s">
+        <v>418</v>
+      </c>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="134" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="134" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="134" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="134" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="136"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="131">
+        <v>1</v>
+      </c>
+      <c r="I3" s="131">
+        <v>2</v>
+      </c>
+      <c r="J3" s="131">
+        <v>3</v>
+      </c>
+      <c r="K3" s="131">
+        <v>4</v>
+      </c>
+      <c r="L3" s="131">
+        <v>1</v>
+      </c>
+      <c r="M3" s="131">
+        <v>2</v>
+      </c>
+      <c r="N3" s="131">
+        <v>3</v>
+      </c>
+      <c r="O3" s="131">
+        <v>4</v>
+      </c>
+      <c r="P3" s="131">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="131">
+        <v>2</v>
+      </c>
+      <c r="R3" s="131">
+        <v>3</v>
+      </c>
+      <c r="S3" s="131">
+        <v>4</v>
+      </c>
+      <c r="T3" s="131">
+        <v>1</v>
+      </c>
+      <c r="U3" s="131">
+        <v>2</v>
+      </c>
+      <c r="V3" s="131">
+        <v>3</v>
+      </c>
+      <c r="W3" s="131">
+        <v>4</v>
+      </c>
+      <c r="X3" s="131">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="131">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="131">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="131">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="131">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="131">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="131">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="131">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="131">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="131">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="131">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="131">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="131">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="131">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="131">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="131" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="131"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="132" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="131" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="131"/>
+      <c r="AM6" s="131"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="132"/>
+      <c r="B7" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="131"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="131" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="131" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="131"/>
+      <c r="AH8" s="131"/>
+      <c r="AI8" s="131"/>
+      <c r="AJ8" s="131"/>
+      <c r="AK8" s="131"/>
+      <c r="AL8" s="131"/>
+      <c r="AM8" s="131"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="148"/>
+      <c r="B9" s="132" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="131" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="131"/>
+      <c r="AJ9" s="131"/>
+      <c r="AK9" s="131"/>
+      <c r="AL9" s="131"/>
+      <c r="AM9" s="131"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="148"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="131" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="131"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="131"/>
+      <c r="AH10" s="131"/>
+      <c r="AI10" s="131"/>
+      <c r="AJ10" s="131"/>
+      <c r="AK10" s="131"/>
+      <c r="AL10" s="131"/>
+      <c r="AM10" s="131"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="148"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="131"/>
+      <c r="AK11" s="131"/>
+      <c r="AL11" s="131"/>
+      <c r="AM11" s="131"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="148"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="131" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="131"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="131"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="148"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="131" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="131" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="131"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="131"/>
+      <c r="AM13" s="131"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="148"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" s="131" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="131"/>
+      <c r="AJ14" s="131"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="131"/>
+      <c r="AM14" s="131"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="148"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>404</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="131"/>
+      <c r="AJ15" s="131"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="131"/>
+      <c r="AM15" s="131"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="131"/>
+      <c r="AK16" s="131"/>
+      <c r="AL16" s="131"/>
+      <c r="AM16" s="131"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="131" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="131"/>
+      <c r="AJ17" s="131"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="131"/>
+      <c r="AM17" s="131"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="131" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131" t="s">
+        <v>406</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="131"/>
+      <c r="AJ18" s="131"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="131"/>
+      <c r="AM18" s="131"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="131" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131" t="s">
+        <v>406</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="131"/>
+      <c r="AJ19" s="131"/>
+      <c r="AK19" s="131"/>
+      <c r="AL19" s="131"/>
+      <c r="AM19" s="131"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="131" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>452</v>
+      </c>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="131"/>
+      <c r="AJ20" s="131"/>
+      <c r="AK20" s="131"/>
+      <c r="AL20" s="131"/>
+      <c r="AM20" s="131"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="G21" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="131"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="G22" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="131"/>
+      <c r="AM22" s="131"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="131" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="G23" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="131"/>
+      <c r="AJ23" s="131"/>
+      <c r="AK23" s="131"/>
+      <c r="AL23" s="131"/>
+      <c r="AM23" s="131"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="131" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131" t="s">
+        <v>455</v>
+      </c>
+      <c r="G24" s="131" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="131"/>
+      <c r="AJ24" s="131"/>
+      <c r="AK24" s="131"/>
+      <c r="AL24" s="131"/>
+      <c r="AM24" s="131"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>450</v>
+      </c>
+      <c r="G25" s="131" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="131"/>
+      <c r="AJ25" s="131"/>
+      <c r="AK25" s="131"/>
+      <c r="AL25" s="131"/>
+      <c r="AM25" s="131"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26" s="148"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="131" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="131" t="s">
+        <v>450</v>
+      </c>
+      <c r="G26" s="131" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="148"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G27" s="131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="131"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
+      <c r="AM27" s="131"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" s="148"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="131" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" s="131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="131"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="131"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="131"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="131"/>
+      <c r="AK28" s="131"/>
+      <c r="AL28" s="131"/>
+      <c r="AM28" s="131"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29" s="148"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="131" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="131"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="131"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="131"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="131"/>
+      <c r="AJ29" s="131"/>
+      <c r="AK29" s="131"/>
+      <c r="AL29" s="131"/>
+      <c r="AM29" s="131"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="148"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G30" s="131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="131"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="131"/>
+      <c r="AJ30" s="131"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="131"/>
+      <c r="AM30" s="131"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" s="149"/>
+      <c r="B31" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="132" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="131" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" s="131" t="s">
+        <v>451</v>
+      </c>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="131"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="131"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="131"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="131"/>
+      <c r="AJ31" s="131"/>
+      <c r="AK31" s="131"/>
+      <c r="AL31" s="131"/>
+      <c r="AM31" s="131"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="131" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="133"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131" t="s">
+        <v>463</v>
+      </c>
+      <c r="G32" s="131" t="s">
+        <v>464</v>
+      </c>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="131"/>
+      <c r="AJ32" s="131"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="131"/>
+      <c r="AM32" s="131"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="150"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="150"/>
+      <c r="AK33" s="150"/>
+      <c r="AL33" s="150"/>
+      <c r="AM33" s="150"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34" s="153"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="153"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="153"/>
+      <c r="AA34" s="153"/>
+      <c r="AB34" s="153"/>
+      <c r="AC34" s="153"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="153"/>
+      <c r="AH34" s="153"/>
+      <c r="AI34" s="153"/>
+      <c r="AJ34" s="153"/>
+      <c r="AK34" s="153"/>
+      <c r="AL34" s="153"/>
+      <c r="AM34" s="153"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35" s="152"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="152"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="152"/>
+      <c r="AA35" s="152"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="152"/>
+      <c r="AD35" s="152"/>
+      <c r="AE35" s="152"/>
+      <c r="AF35" s="152"/>
+      <c r="AG35" s="152"/>
+      <c r="AH35" s="152"/>
+      <c r="AI35" s="152"/>
+      <c r="AJ35" s="152"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="152"/>
+      <c r="AM35" s="152"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A8:A31"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B9:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C3BAE-E43A-4A6D-B442-CECC974E4065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B68A666-FFE0-4C3F-9989-D6F8C2C1F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
@@ -1536,10 +1536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.08.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9월 4일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,6 +1678,10 @@
   </si>
   <si>
     <t>22.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1880,7 +1880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2194,13 +2194,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,6 +2529,42 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2594,100 +2643,55 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3060,12 +3064,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -3091,17 +3095,17 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="105" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="107"/>
+      <c r="H7" s="119"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -3127,15 +3131,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -3161,14 +3165,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -3235,13 +3239,13 @@
       <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
@@ -3318,12 +3322,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="117"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
@@ -3376,17 +3380,17 @@
         <v>19</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="105" t="s">
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="107"/>
+      <c r="N9" s="119"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
@@ -3862,10 +3866,10 @@
       <c r="L29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="105" t="s">
+      <c r="M29" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="107"/>
+      <c r="N29" s="119"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
@@ -3966,13 +3970,13 @@
       <c r="G33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="107"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
@@ -3988,13 +3992,13 @@
       <c r="G34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21">
@@ -4059,15 +4063,15 @@
       <c r="G37" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="105" t="s">
+      <c r="H37" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="107"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="119"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
@@ -4083,13 +4087,13 @@
       <c r="G38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="114"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="128"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
@@ -4708,13 +4712,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -4768,13 +4772,13 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="117"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -4811,15 +4815,15 @@
       <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="33"/>
@@ -4943,13 +4947,13 @@
         <v>158</v>
       </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
       <c r="L18" s="53"/>
     </row>
   </sheetData>
@@ -4987,13 +4991,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
@@ -5045,11 +5049,11 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
@@ -5086,13 +5090,13 @@
       <c r="E9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="128"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="33"/>
@@ -5462,8 +5466,8 @@
       <c r="G33" s="83"/>
       <c r="H33" s="82"/>
       <c r="I33" s="82"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="122"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
       <c r="L33" s="85"/>
     </row>
   </sheetData>
@@ -5483,8 +5487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F9D2E6-B680-4670-861D-0722D511F357}">
   <dimension ref="D2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5496,13 +5500,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -5730,13 +5734,13 @@
       <c r="D20" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="33"/>
@@ -5771,21 +5775,19 @@
       <c r="D23" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140" t="s">
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="109" t="s">
         <v>331</v>
       </c>
       <c r="I23" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="J23" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="K23" s="98" t="s">
-        <v>331</v>
-      </c>
+      <c r="J23" s="141" t="s">
+        <v>344</v>
+      </c>
+      <c r="K23" s="142"/>
     </row>
     <row r="24" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5818,18 +5820,20 @@
       <c r="D26" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="129" t="s">
+      <c r="E26" s="141" t="s">
         <v>344</v>
       </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="158" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5923,9 +5927,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5953,13 +5959,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="3" spans="7:14" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
@@ -5992,25 +5998,25 @@
         <v>54</v>
       </c>
       <c r="H6" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="J6" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="M6" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="N6" s="65" t="s">
         <v>428</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="7:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6032,10 +6038,10 @@
       <c r="L7" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M7" s="157" t="s">
-        <v>457</v>
-      </c>
-      <c r="N7" s="158"/>
+      <c r="M7" s="147" t="s">
+        <v>456</v>
+      </c>
+      <c r="N7" s="148"/>
     </row>
     <row r="8" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="33"/>
@@ -6045,40 +6051,40 @@
         <v>54</v>
       </c>
       <c r="H9" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="J9" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="K9" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="L9" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="L9" s="68" t="s">
+      <c r="M9" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="N9" s="68" t="s">
         <v>435</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="10" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="162" t="s">
+      <c r="H10" s="116" t="s">
+        <v>456</v>
+      </c>
+      <c r="I10" s="144" t="s">
         <v>457</v>
       </c>
-      <c r="I10" s="159" t="s">
-        <v>458</v>
-      </c>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="161"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="146"/>
       <c r="M10" s="97" t="s">
         <v>335</v>
       </c>
@@ -6092,25 +6098,25 @@
         <v>54</v>
       </c>
       <c r="H12" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="I12" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="J12" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="K12" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="L12" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="M12" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="13" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6145,22 +6151,22 @@
         <v>54</v>
       </c>
       <c r="H15" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="J15" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="K15" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="L15" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="M15" s="39" t="s">
         <v>448</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>449</v>
       </c>
       <c r="N15" s="39"/>
     </row>
@@ -6168,98 +6174,70 @@
       <c r="G16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="138"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="108"/>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
     </row>
     <row r="19" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G19" s="141"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G20" s="141"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G21" s="141"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="141"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
     </row>
     <row r="24" spans="7:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G24" s="141"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="141"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="143"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7248,10 +7226,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2049C0E-0B3A-41CB-95CB-257CB110AC6A}">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7268,1750 +7246,1718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="105" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="157" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="157" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="157" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="147" t="s">
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="154" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="154" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="134" t="s">
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="134" t="s">
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="151" t="s">
         <v>419</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="134" t="s">
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="134" t="s">
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="151" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="134" t="s">
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="151" t="s">
         <v>360</v>
       </c>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="134" t="s">
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="151" t="s">
         <v>361</v>
       </c>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="134" t="s">
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
+      <c r="AJ2" s="151" t="s">
         <v>362</v>
       </c>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="136"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="153"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="131">
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="105">
         <v>1</v>
       </c>
-      <c r="I3" s="131">
+      <c r="I3" s="105">
         <v>2</v>
       </c>
-      <c r="J3" s="131">
+      <c r="J3" s="105">
         <v>3</v>
       </c>
-      <c r="K3" s="131">
+      <c r="K3" s="105">
         <v>4</v>
       </c>
-      <c r="L3" s="131">
+      <c r="L3" s="105">
         <v>1</v>
       </c>
-      <c r="M3" s="131">
+      <c r="M3" s="105">
         <v>2</v>
       </c>
-      <c r="N3" s="131">
+      <c r="N3" s="105">
         <v>3</v>
       </c>
-      <c r="O3" s="131">
+      <c r="O3" s="105">
         <v>4</v>
       </c>
-      <c r="P3" s="131">
+      <c r="P3" s="105">
         <v>1</v>
       </c>
-      <c r="Q3" s="131">
+      <c r="Q3" s="105">
         <v>2</v>
       </c>
-      <c r="R3" s="131">
+      <c r="R3" s="105">
         <v>3</v>
       </c>
-      <c r="S3" s="131">
+      <c r="S3" s="105">
         <v>4</v>
       </c>
-      <c r="T3" s="131">
+      <c r="T3" s="105">
         <v>1</v>
       </c>
-      <c r="U3" s="131">
+      <c r="U3" s="105">
         <v>2</v>
       </c>
-      <c r="V3" s="131">
+      <c r="V3" s="105">
         <v>3</v>
       </c>
-      <c r="W3" s="131">
+      <c r="W3" s="105">
         <v>4</v>
       </c>
-      <c r="X3" s="131">
+      <c r="X3" s="105">
         <v>1</v>
       </c>
-      <c r="Y3" s="131">
+      <c r="Y3" s="105">
         <v>2</v>
       </c>
-      <c r="Z3" s="131">
+      <c r="Z3" s="105">
         <v>3</v>
       </c>
-      <c r="AA3" s="131">
+      <c r="AA3" s="105">
         <v>4</v>
       </c>
-      <c r="AB3" s="131">
+      <c r="AB3" s="105">
         <v>1</v>
       </c>
-      <c r="AC3" s="131">
+      <c r="AC3" s="105">
         <v>2</v>
       </c>
-      <c r="AD3" s="131">
+      <c r="AD3" s="105">
         <v>3</v>
       </c>
-      <c r="AE3" s="131">
+      <c r="AE3" s="105">
         <v>4</v>
       </c>
-      <c r="AF3" s="131">
+      <c r="AF3" s="105">
         <v>1</v>
       </c>
-      <c r="AG3" s="131">
+      <c r="AG3" s="105">
         <v>2</v>
       </c>
-      <c r="AH3" s="131">
+      <c r="AH3" s="105">
         <v>3</v>
       </c>
-      <c r="AI3" s="131">
+      <c r="AI3" s="105">
         <v>4</v>
       </c>
-      <c r="AJ3" s="131">
+      <c r="AJ3" s="105">
         <v>1</v>
       </c>
-      <c r="AK3" s="131">
+      <c r="AK3" s="105">
         <v>2</v>
       </c>
-      <c r="AL3" s="131">
+      <c r="AL3" s="105">
         <v>3</v>
       </c>
-      <c r="AM3" s="131">
+      <c r="AM3" s="105">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131" t="s">
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105" t="s">
         <v>413</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="105" t="s">
         <v>415</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105" t="s">
         <v>416</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="131"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="157" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105" t="s">
         <v>411</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="131"/>
-      <c r="AM6" s="131"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="105" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105" t="s">
         <v>411</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="131"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="131"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="154" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="105" t="s">
         <v>409</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="131"/>
-      <c r="AH8" s="131"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="131"/>
-      <c r="AK8" s="131"/>
-      <c r="AL8" s="131"/>
-      <c r="AM8" s="131"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
-      <c r="B9" s="132" t="s">
+      <c r="A9" s="155"/>
+      <c r="B9" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="157" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="105" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="131"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="148"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="131" t="s">
+      <c r="A10" s="155"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131" t="s">
+      <c r="E10" s="105"/>
+      <c r="F10" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G10" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="131"/>
-      <c r="AL10" s="131"/>
-      <c r="AM10" s="131"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="105"/>
+      <c r="AM10" s="105"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="148"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="105" t="s">
         <v>399</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="131"/>
-      <c r="AJ11" s="131"/>
-      <c r="AK11" s="131"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="131"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="131" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131" t="s">
+      <c r="E12" s="105"/>
+      <c r="F12" s="105" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="105" t="s">
         <v>421</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="131"/>
-      <c r="AM12" s="131"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="131" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="131"/>
-      <c r="AJ14" s="131"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="131"/>
-      <c r="AM14" s="131"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="131" t="s">
+      <c r="A15" s="155"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132" t="s">
+      <c r="A16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="131"/>
-      <c r="AM16" s="131"/>
+      <c r="G16" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="105"/>
+      <c r="AM16" s="105"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="131" t="s">
+      <c r="A17" s="155"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="G17" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="131"/>
-      <c r="AJ17" s="131"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="131"/>
+      <c r="G17" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="105"/>
+      <c r="AM17" s="105"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="131" t="s">
+      <c r="A18" s="155"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131" t="s">
+      <c r="E18" s="105"/>
+      <c r="F18" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="G18" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="131"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="131"/>
-      <c r="AM18" s="131"/>
+      <c r="G18" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="105"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="131" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131" t="s">
+      <c r="E19" s="105"/>
+      <c r="F19" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="G19" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="131"/>
-      <c r="AJ19" s="131"/>
-      <c r="AK19" s="131"/>
-      <c r="AL19" s="131"/>
-      <c r="AM19" s="131"/>
+      <c r="G19" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="105"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="131" t="s">
+      <c r="A20" s="155"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131" t="s">
+      <c r="E20" s="105"/>
+      <c r="F20" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="105" t="s">
+        <v>464</v>
+      </c>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
+      <c r="AM20" s="105"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="155"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105" t="s">
         <v>452</v>
       </c>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="137"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="131"/>
-      <c r="AM20" s="131"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="131" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131" t="s">
+      <c r="G21" s="105" t="s">
         <v>453</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="105"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105" t="s">
+        <v>452</v>
+      </c>
+      <c r="G22" s="105" t="s">
+        <v>453</v>
+      </c>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="105"/>
+      <c r="AM22" s="105"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>453</v>
+      </c>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="105"/>
+      <c r="AM23" s="105"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="155"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105" t="s">
         <v>454</v>
       </c>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="131"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="131"/>
-      <c r="AM21" s="131"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="131" t="s">
-        <v>384</v>
-      </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131" t="s">
-        <v>453</v>
-      </c>
-      <c r="G22" s="131" t="s">
-        <v>454</v>
-      </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="131"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="131" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131" t="s">
-        <v>453</v>
-      </c>
-      <c r="G23" s="131" t="s">
-        <v>454</v>
-      </c>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="131"/>
-      <c r="AK23" s="131"/>
-      <c r="AL23" s="131"/>
-      <c r="AM23" s="131"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="131" t="s">
-        <v>369</v>
-      </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131" t="s">
+      <c r="G24" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="G24" s="131" t="s">
-        <v>456</v>
-      </c>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="131"/>
-      <c r="AJ24" s="131"/>
-      <c r="AK24" s="131"/>
-      <c r="AL24" s="131"/>
-      <c r="AM24" s="131"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="105"/>
+      <c r="AM24" s="105"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D25" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="105" t="s">
         <v>393</v>
       </c>
-      <c r="F25" s="131" t="s">
+      <c r="F25" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="G25" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26" s="155"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="105" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="G26" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="155"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="G27" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" s="155"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="105" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="105"/>
+      <c r="AJ28" s="105"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="105"/>
+      <c r="AM28" s="105"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29" s="155"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="105" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="G29" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="105"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="105"/>
+      <c r="AM29" s="105"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="155"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="105" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="105"/>
+      <c r="AM30" s="105"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" s="156"/>
+      <c r="B31" s="105" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="157" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="105" t="s">
+        <v>461</v>
+      </c>
+      <c r="G31" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="G25" s="131" t="s">
-        <v>459</v>
-      </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="131" t="s">
-        <v>394</v>
-      </c>
-      <c r="F26" s="131" t="s">
-        <v>450</v>
-      </c>
-      <c r="G26" s="131" t="s">
-        <v>459</v>
-      </c>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132" t="s">
-        <v>395</v>
-      </c>
-      <c r="E27" s="131" t="s">
-        <v>388</v>
-      </c>
-      <c r="F27" s="131" t="s">
-        <v>460</v>
-      </c>
-      <c r="G27" s="131" t="s">
-        <v>461</v>
-      </c>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="131"/>
-      <c r="AK27" s="131"/>
-      <c r="AL27" s="131"/>
-      <c r="AM27" s="131"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="131" t="s">
-        <v>389</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>460</v>
-      </c>
-      <c r="G28" s="131" t="s">
-        <v>461</v>
-      </c>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="131"/>
-      <c r="AL28" s="131"/>
-      <c r="AM28" s="131"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="131" t="s">
-        <v>387</v>
-      </c>
-      <c r="F29" s="131" t="s">
-        <v>460</v>
-      </c>
-      <c r="G29" s="131" t="s">
-        <v>461</v>
-      </c>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="131"/>
-      <c r="AK29" s="131"/>
-      <c r="AL29" s="131"/>
-      <c r="AM29" s="131"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="131" t="s">
-        <v>390</v>
-      </c>
-      <c r="F30" s="131" t="s">
-        <v>460</v>
-      </c>
-      <c r="G30" s="131" t="s">
-        <v>461</v>
-      </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="131"/>
-      <c r="AJ30" s="131"/>
-      <c r="AK30" s="131"/>
-      <c r="AL30" s="131"/>
-      <c r="AM30" s="131"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
-      <c r="B31" s="131" t="s">
-        <v>403</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>335</v>
-      </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="131" t="s">
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="105"/>
+      <c r="AI31" s="105"/>
+      <c r="AJ31" s="105"/>
+      <c r="AK31" s="105"/>
+      <c r="AL31" s="105"/>
+      <c r="AM31" s="105"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="G31" s="131" t="s">
-        <v>451</v>
-      </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="131"/>
-      <c r="AJ31" s="131"/>
-      <c r="AK31" s="131"/>
-      <c r="AL31" s="131"/>
-      <c r="AM31" s="131"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="131" t="s">
-        <v>356</v>
-      </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131" t="s">
+      <c r="G32" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="G32" s="131" t="s">
-        <v>464</v>
-      </c>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="131"/>
-      <c r="AJ32" s="131"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="131"/>
-      <c r="AM32" s="131"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="105"/>
+      <c r="AM32" s="105"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="112" t="s">
         <v>357</v>
       </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="150"/>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="150"/>
-      <c r="S33" s="150"/>
-      <c r="T33" s="150"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="150"/>
-      <c r="X33" s="150"/>
-      <c r="Y33" s="150"/>
-      <c r="Z33" s="150"/>
-      <c r="AA33" s="150"/>
-      <c r="AB33" s="150"/>
-      <c r="AC33" s="150"/>
-      <c r="AD33" s="150"/>
-      <c r="AE33" s="150"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="150"/>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="150"/>
-      <c r="AJ33" s="150"/>
-      <c r="AK33" s="150"/>
-      <c r="AL33" s="150"/>
-      <c r="AM33" s="150"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="112"/>
+      <c r="AI33" s="112"/>
+      <c r="AJ33" s="112"/>
+      <c r="AK33" s="112"/>
+      <c r="AL33" s="112"/>
+      <c r="AM33" s="112"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="153"/>
-      <c r="T34" s="153"/>
-      <c r="U34" s="153"/>
-      <c r="V34" s="153"/>
-      <c r="W34" s="153"/>
-      <c r="X34" s="153"/>
-      <c r="Y34" s="153"/>
-      <c r="Z34" s="153"/>
-      <c r="AA34" s="153"/>
-      <c r="AB34" s="153"/>
-      <c r="AC34" s="153"/>
-      <c r="AD34" s="153"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="153"/>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="153"/>
-      <c r="AI34" s="153"/>
-      <c r="AJ34" s="153"/>
-      <c r="AK34" s="153"/>
-      <c r="AL34" s="153"/>
-      <c r="AM34" s="153"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
-      <c r="R35" s="152"/>
-      <c r="S35" s="152"/>
-      <c r="T35" s="152"/>
-      <c r="U35" s="152"/>
-      <c r="V35" s="152"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="152"/>
-      <c r="AA35" s="152"/>
-      <c r="AB35" s="152"/>
-      <c r="AC35" s="152"/>
-      <c r="AD35" s="152"/>
-      <c r="AE35" s="152"/>
-      <c r="AF35" s="152"/>
-      <c r="AG35" s="152"/>
-      <c r="AH35" s="152"/>
-      <c r="AI35" s="152"/>
-      <c r="AJ35" s="152"/>
-      <c r="AK35" s="152"/>
-      <c r="AL35" s="152"/>
-      <c r="AM35" s="152"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="A8:A31"/>
@@ -9028,15 +8974,6 @@
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B9:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발일정/개발일정.xlsx
+++ b/개발일정/개발일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jeongbin\개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B68A666-FFE0-4C3F-9989-D6F8C2C1F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5DC3DE-EFA9-4BDD-B7EA-104FBB98CC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{35D19782-2640-4577-BDC1-AB3DBC55561F}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="6-7월" sheetId="5" r:id="rId4"/>
     <sheet name="7-8월" sheetId="6" r:id="rId5"/>
     <sheet name="9월" sheetId="8" r:id="rId6"/>
-    <sheet name="소요 시간 정리" sheetId="4" r:id="rId7"/>
-    <sheet name="WBS" sheetId="7" r:id="rId8"/>
+    <sheet name="9월 ver.2" sheetId="9" r:id="rId7"/>
+    <sheet name="소요 시간 정리" sheetId="4" r:id="rId8"/>
+    <sheet name="WBS" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="468">
   <si>
     <t>3월 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1682,6 +1683,18 @@
   </si>
   <si>
     <t>22.08.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 공지사항 구현, 기본 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 적용 및 보완점 보완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1876,6 +1889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,7 +2232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2643,6 +2662,12 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,7 +2689,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2685,13 +2710,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5487,7 +5557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F9D2E6-B680-4670-861D-0722D511F357}">
   <dimension ref="D2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -5825,12 +5895,12 @@
       </c>
       <c r="F26" s="142"/>
       <c r="G26" s="142"/>
-      <c r="H26" s="158" t="s">
+      <c r="H26" s="143" t="s">
         <v>331</v>
       </c>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
       <c r="L26" s="115"/>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
@@ -5944,7 +6014,7 @@
   <dimension ref="G1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6038,10 +6108,10 @@
       <c r="L7" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M7" s="147" t="s">
+      <c r="M7" s="149" t="s">
         <v>456</v>
       </c>
-      <c r="N7" s="148"/>
+      <c r="N7" s="150"/>
     </row>
     <row r="8" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="33"/>
@@ -6079,12 +6149,12 @@
       <c r="H10" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="146" t="s">
         <v>457</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="97" t="s">
         <v>335</v>
       </c>
@@ -6174,14 +6244,14 @@
       <c r="G16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="H16" s="159" t="s">
         <v>356</v>
       </c>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
       <c r="N16" s="108"/>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.3">
@@ -6232,27 +6302,258 @@
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G25" s="33"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
       <c r="M25" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H16:M16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D202CF5D-68E0-4268-8565-23C8586CD7FF}">
+  <dimension ref="F1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:13" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H1" s="125" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+    </row>
+    <row r="3" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="6:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="174"/>
+    </row>
+    <row r="8" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="6:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="172"/>
+    </row>
+    <row r="11" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="6:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>439</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="175" t="s">
+        <v>333</v>
+      </c>
+      <c r="L13" s="175" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="176" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="6:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="165"/>
+      <c r="I16" s="151" t="s">
+        <v>344</v>
+      </c>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162" t="s">
+        <v>467</v>
+      </c>
+      <c r="L16" s="163"/>
+      <c r="M16" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C667A2E-9FC1-4F8D-B8B2-9F22E98913F0}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -7224,7 +7525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2049C0E-0B3A-41CB-95CB-257CB110AC6A}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
@@ -7295,80 +7596,80 @@
       <c r="AM1" s="105"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="152" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="152" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="154" t="s">
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="156" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="156" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="153" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="151" t="s">
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="153" t="s">
         <v>418</v>
       </c>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="151" t="s">
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="153" t="s">
         <v>419</v>
       </c>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="151" t="s">
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="153" t="s">
         <v>358</v>
       </c>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="151" t="s">
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="151" t="s">
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="153" t="s">
         <v>360</v>
       </c>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="151" t="s">
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="151" t="s">
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="153" t="s">
         <v>362</v>
       </c>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="153"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="154"/>
+      <c r="AM2" s="155"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
       <c r="H3" s="105">
         <v>1</v>
       </c>
@@ -7569,7 +7870,7 @@
       <c r="AM5" s="105"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="152" t="s">
         <v>354</v>
       </c>
       <c r="B6" s="105" t="s">
@@ -7618,7 +7919,7 @@
       <c r="AM6" s="105"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="105" t="s">
         <v>367</v>
       </c>
@@ -7665,7 +7966,7 @@
       <c r="AM7" s="105"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="156" t="s">
         <v>355</v>
       </c>
       <c r="B8" s="105" t="s">
@@ -7716,11 +8017,11 @@
       <c r="AM8" s="105"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
-      <c r="B9" s="157" t="s">
+      <c r="A9" s="157"/>
+      <c r="B9" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="152" t="s">
         <v>386</v>
       </c>
       <c r="D9" s="105" t="s">
@@ -7767,9 +8068,9 @@
       <c r="AM9" s="105"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
       <c r="D10" s="105" t="s">
         <v>390</v>
       </c>
@@ -7814,9 +8115,9 @@
       <c r="AM10" s="105"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152" t="s">
         <v>370</v>
       </c>
       <c r="D11" s="105" t="s">
@@ -7863,9 +8164,9 @@
       <c r="AM11" s="105"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="155"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="105" t="s">
         <v>372</v>
       </c>
@@ -7910,9 +8211,9 @@
       <c r="AM12" s="105"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="105" t="s">
         <v>373</v>
       </c>
@@ -7957,10 +8258,10 @@
       <c r="AM13" s="105"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="155"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157" t="s">
+      <c r="A14" s="157"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152" t="s">
         <v>374</v>
       </c>
       <c r="E14" s="105" t="s">
@@ -8006,10 +8307,10 @@
       <c r="AM14" s="105"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="105" t="s">
         <v>375</v>
       </c>
@@ -8053,9 +8354,9 @@
       <c r="AM15" s="105"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157" t="s">
+      <c r="A16" s="157"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152" t="s">
         <v>377</v>
       </c>
       <c r="D16" s="105" t="s">
@@ -8102,9 +8403,9 @@
       <c r="AM16" s="105"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="155"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="105" t="s">
         <v>379</v>
       </c>
@@ -8149,9 +8450,9 @@
       <c r="AM17" s="105"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="155"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="105" t="s">
         <v>380</v>
       </c>
@@ -8196,9 +8497,9 @@
       <c r="AM18" s="105"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="155"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="105" t="s">
         <v>381</v>
       </c>
@@ -8243,9 +8544,9 @@
       <c r="AM19" s="105"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="155"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
       <c r="D20" s="105" t="s">
         <v>407</v>
       </c>
@@ -8290,9 +8591,9 @@
       <c r="AM20" s="105"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="155"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157" t="s">
+      <c r="A21" s="157"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152" t="s">
         <v>382</v>
       </c>
       <c r="D21" s="105" t="s">
@@ -8339,9 +8640,9 @@
       <c r="AM21" s="105"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="155"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="105" t="s">
         <v>384</v>
       </c>
@@ -8386,9 +8687,9 @@
       <c r="AM22" s="105"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A23" s="155"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="105" t="s">
         <v>385</v>
       </c>
@@ -8433,8 +8734,8 @@
       <c r="AM23" s="105"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="155"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="105" t="s">
         <v>369</v>
       </c>
@@ -8480,12 +8781,12 @@
       <c r="AM24" s="105"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="155"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157" t="s">
+      <c r="A25" s="157"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="152" t="s">
         <v>392</v>
       </c>
       <c r="E25" s="105" t="s">
@@ -8531,10 +8832,10 @@
       <c r="AM25" s="105"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="155"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="105" t="s">
         <v>394</v>
       </c>
@@ -8578,10 +8879,10 @@
       <c r="AM26" s="105"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="155"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152" t="s">
         <v>395</v>
       </c>
       <c r="E27" s="105" t="s">
@@ -8627,10 +8928,10 @@
       <c r="AM27" s="105"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="155"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="105" t="s">
         <v>389</v>
       </c>
@@ -8674,10 +8975,10 @@
       <c r="AM28" s="105"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="155"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="105" t="s">
         <v>387</v>
       </c>
@@ -8721,10 +9022,10 @@
       <c r="AM29" s="105"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="155"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="105" t="s">
         <v>390</v>
       </c>
@@ -8768,15 +9069,15 @@
       <c r="AM30" s="105"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="156"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
       <c r="F31" s="105" t="s">
         <v>461</v>
       </c>
@@ -8949,15 +9250,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="A8:A31"/>
@@ -8974,6 +9266,15 @@
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B9:B30"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
